--- a/fake_results/Dimensiones_lenguado_pixeles.xlsx
+++ b/fake_results/Dimensiones_lenguado_pixeles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Workspaces\GitHub\FLATCLASS\fake_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63A916-205A-4358-B028-5041C944E67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635DC64-A7C7-4F6B-AF99-C18D40617FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="3600" windowWidth="46080" windowHeight="23076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5772" yWindow="1272" windowWidth="25116" windowHeight="24432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Peso (g)</t>
-  </si>
-  <si>
-    <t>Longitud_con_error (mm)</t>
-  </si>
-  <si>
-    <t>Anchura_con_error (mm)</t>
   </si>
   <si>
     <t>Error_longitud_%</t>
@@ -48,12 +42,18 @@
   <si>
     <t>Anchura_real (mm)</t>
   </si>
+  <si>
+    <t>Longitud_VA (mm)</t>
+  </si>
+  <si>
+    <t>Anchura_VA (mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -412,19 +425,20 @@
   <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -432,28 +446,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -466,23 +480,23 @@
       <c r="C2">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
+        <v>302.04000000000002</v>
+      </c>
+      <c r="E2" s="3">
+        <v>117.64</v>
+      </c>
+      <c r="F2">
         <v>33.299999999999997</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>12.97</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.90900000000000003</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-0.23100000000000001</v>
-      </c>
-      <c r="H2">
-        <v>302.04000000000002</v>
-      </c>
-      <c r="I2">
-        <v>117.64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -495,23 +509,23 @@
       <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
+        <v>405.8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="F3">
         <v>44.74</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>10.97</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-0.57799999999999996</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>-0.27300000000000002</v>
-      </c>
-      <c r="H3">
-        <v>405.8</v>
-      </c>
-      <c r="I3">
-        <v>99.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -524,23 +538,23 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
+        <v>355.83</v>
+      </c>
+      <c r="E4" s="3">
+        <v>136.05000000000001</v>
+      </c>
+      <c r="F4">
         <v>39.229999999999997</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.59</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>355.83</v>
-      </c>
-      <c r="I4">
-        <v>136.05000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -553,23 +567,23 @@
       <c r="C5">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
+        <v>397.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>154.56</v>
+      </c>
+      <c r="F5">
         <v>43.78</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>17.04</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>-0.5</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.23499999999999999</v>
-      </c>
-      <c r="H5">
-        <v>397.1</v>
-      </c>
-      <c r="I5">
-        <v>154.56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -582,23 +596,23 @@
       <c r="C6">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
+        <v>379.86</v>
+      </c>
+      <c r="E6" s="3">
+        <v>163.63</v>
+      </c>
+      <c r="F6">
         <v>41.88</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>18.04</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>-0.28599999999999998</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.222</v>
-      </c>
-      <c r="H6">
-        <v>379.86</v>
-      </c>
-      <c r="I6">
-        <v>163.63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -611,23 +625,23 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
+        <v>411.79</v>
+      </c>
+      <c r="E7" s="3">
+        <v>181.22</v>
+      </c>
+      <c r="F7">
         <v>45.4</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>19.98</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.88900000000000001</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>-0.1</v>
-      </c>
-      <c r="H7">
-        <v>411.79</v>
-      </c>
-      <c r="I7">
-        <v>181.22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -640,23 +654,23 @@
       <c r="C8">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
+        <v>463.95</v>
+      </c>
+      <c r="E8" s="3">
+        <v>163.54</v>
+      </c>
+      <c r="F8">
         <v>51.15</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>18.03</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.29399999999999998</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.16700000000000001</v>
-      </c>
-      <c r="H8">
-        <v>463.95</v>
-      </c>
-      <c r="I8">
-        <v>163.54</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -669,23 +683,23 @@
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
+        <v>457.51</v>
+      </c>
+      <c r="E9" s="3">
+        <v>181.59</v>
+      </c>
+      <c r="F9">
         <v>50.44</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>20.02</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.88</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>457.51</v>
-      </c>
-      <c r="I9">
-        <v>181.59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -698,23 +712,23 @@
       <c r="C10">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
+        <v>490.79</v>
+      </c>
+      <c r="E10" s="3">
+        <v>172.88</v>
+      </c>
+      <c r="F10">
         <v>54.11</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>19.059999999999999</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.316</v>
-      </c>
-      <c r="H10">
-        <v>490.79</v>
-      </c>
-      <c r="I10">
-        <v>172.88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -727,23 +741,23 @@
       <c r="C11">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>488.07</v>
+      </c>
+      <c r="E11" s="3">
+        <v>172.61</v>
+      </c>
+      <c r="F11">
         <v>53.81</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>19.03</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>-0.35199999999999998</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.158</v>
-      </c>
-      <c r="H11">
-        <v>488.07</v>
-      </c>
-      <c r="I11">
-        <v>172.61</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -756,23 +770,23 @@
       <c r="C12">
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
+        <v>494.06</v>
+      </c>
+      <c r="E12" s="3">
+        <v>171.7</v>
+      </c>
+      <c r="F12">
         <v>54.47</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>18.93</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.87</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>-0.36799999999999999</v>
-      </c>
-      <c r="H12">
-        <v>494.06</v>
-      </c>
-      <c r="I12">
-        <v>171.7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -785,23 +799,23 @@
       <c r="C13">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
+        <v>485.17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>171.7</v>
+      </c>
+      <c r="F13">
         <v>53.49</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>18.93</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>-0.94399999999999995</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>-0.36799999999999999</v>
-      </c>
-      <c r="H13">
-        <v>485.17</v>
-      </c>
-      <c r="I13">
-        <v>171.7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -814,23 +828,23 @@
       <c r="C14">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
+        <v>499.95</v>
+      </c>
+      <c r="E14" s="3">
+        <v>172.34</v>
+      </c>
+      <c r="F14">
         <v>55.12</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>19</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.218</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0</v>
-      </c>
-      <c r="H14">
-        <v>499.95</v>
-      </c>
-      <c r="I14">
-        <v>172.34</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -843,23 +857,23 @@
       <c r="C15">
         <v>20</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
+        <v>493.88</v>
+      </c>
+      <c r="E15" s="3">
+        <v>180.77</v>
+      </c>
+      <c r="F15">
         <v>54.45</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>19.93</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>-0.35</v>
-      </c>
-      <c r="H15">
-        <v>493.88</v>
-      </c>
-      <c r="I15">
-        <v>180.77</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -872,23 +886,23 @@
       <c r="C16">
         <v>20</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
+        <v>490.34</v>
+      </c>
+      <c r="E16" s="3">
+        <v>181.68</v>
+      </c>
+      <c r="F16">
         <v>54.06</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>20.03</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.111</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.15</v>
-      </c>
-      <c r="H16">
-        <v>490.34</v>
-      </c>
-      <c r="I16">
-        <v>181.68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -901,23 +915,23 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
+        <v>490.25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>181.95</v>
+      </c>
+      <c r="F17">
         <v>54.05</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>20.059999999999999</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.3</v>
-      </c>
-      <c r="H17">
-        <v>490.25</v>
-      </c>
-      <c r="I17">
-        <v>181.95</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -930,23 +944,23 @@
       <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
+        <v>502.95</v>
+      </c>
+      <c r="E18" s="3">
+        <v>180.68</v>
+      </c>
+      <c r="F18">
         <v>55.45</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>19.920000000000002</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.81799999999999995</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>-0.4</v>
-      </c>
-      <c r="H18">
-        <v>502.95</v>
-      </c>
-      <c r="I18">
-        <v>180.68</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -959,23 +973,23 @@
       <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
+        <v>500.68</v>
+      </c>
+      <c r="E19" s="3">
+        <v>181.04</v>
+      </c>
+      <c r="F19">
         <v>55.2</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>19.96</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>0.36399999999999999</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>-0.2</v>
-      </c>
-      <c r="H19">
-        <v>500.68</v>
-      </c>
-      <c r="I19">
-        <v>181.04</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -988,23 +1002,23 @@
       <c r="C20">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
+        <v>502.49</v>
+      </c>
+      <c r="E20" s="3">
+        <v>181.5</v>
+      </c>
+      <c r="F20">
         <v>55.4</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>20.010000000000002</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.72699999999999998</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.05</v>
-      </c>
-      <c r="H20">
-        <v>502.49</v>
-      </c>
-      <c r="I20">
-        <v>181.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1017,23 +1031,23 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
+        <v>506.39</v>
+      </c>
+      <c r="E21" s="3">
+        <v>181.32</v>
+      </c>
+      <c r="F21">
         <v>55.83</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>19.989999999999998</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>-0.30399999999999999</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>-0.05</v>
-      </c>
-      <c r="H21">
-        <v>506.39</v>
-      </c>
-      <c r="I21">
-        <v>181.32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1046,23 +1060,23 @@
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
+        <v>492.15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>191.02</v>
+      </c>
+      <c r="F22">
         <v>54.26</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>21.06</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>0.48099999999999998</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.28599999999999998</v>
-      </c>
-      <c r="H22">
-        <v>492.15</v>
-      </c>
-      <c r="I22">
-        <v>191.02</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1075,23 +1089,23 @@
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
+        <v>497.32</v>
+      </c>
+      <c r="E23" s="3">
+        <v>190.66</v>
+      </c>
+      <c r="F23">
         <v>54.83</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>21.02</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>-0.309</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H23">
-        <v>497.32</v>
-      </c>
-      <c r="I23">
-        <v>190.66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1104,23 +1118,23 @@
       <c r="C24">
         <v>21</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
+        <v>510.75</v>
+      </c>
+      <c r="E24" s="3">
+        <v>190.57</v>
+      </c>
+      <c r="F24">
         <v>56.31</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>21.01</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>0.55400000000000005</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H24">
-        <v>510.75</v>
-      </c>
-      <c r="I24">
-        <v>190.57</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1133,23 +1147,23 @@
       <c r="C25">
         <v>21</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
+        <v>510.29</v>
+      </c>
+      <c r="E25" s="3">
+        <v>191.11</v>
+      </c>
+      <c r="F25">
         <v>56.26</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>21.07</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>0.46400000000000002</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.33300000000000002</v>
-      </c>
-      <c r="H25">
-        <v>510.29</v>
-      </c>
-      <c r="I25">
-        <v>191.11</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1162,23 +1176,23 @@
       <c r="C26">
         <v>21</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
+        <v>512.29</v>
+      </c>
+      <c r="E26" s="3">
+        <v>190.66</v>
+      </c>
+      <c r="F26">
         <v>56.48</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>21.02</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H26">
-        <v>512.29</v>
-      </c>
-      <c r="I26">
-        <v>190.66</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1191,23 +1205,23 @@
       <c r="C27">
         <v>21</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
+        <v>503.95</v>
+      </c>
+      <c r="E27" s="3">
+        <v>191.02</v>
+      </c>
+      <c r="F27">
         <v>55.56</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>21.06</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>-0.78600000000000003</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.28599999999999998</v>
-      </c>
-      <c r="H27">
-        <v>503.95</v>
-      </c>
-      <c r="I27">
-        <v>191.02</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1220,23 +1234,23 @@
       <c r="C28">
         <v>21</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
+        <v>506.12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>190.29</v>
+      </c>
+      <c r="F28">
         <v>55.8</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>20.98</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>-0.35699999999999998</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>-9.5000000000000001E-2</v>
-      </c>
-      <c r="H28">
-        <v>506.12</v>
-      </c>
-      <c r="I28">
-        <v>190.29</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1249,23 +1263,23 @@
       <c r="C29">
         <v>21</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
+        <v>513.47</v>
+      </c>
+      <c r="E29" s="3">
+        <v>190.02</v>
+      </c>
+      <c r="F29">
         <v>56.61</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>20.95</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>-0.68400000000000005</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>-0.23799999999999999</v>
-      </c>
-      <c r="H29">
-        <v>513.47</v>
-      </c>
-      <c r="I29">
-        <v>190.02</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1278,23 +1292,23 @@
       <c r="C30">
         <v>21</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
+        <v>517.91</v>
+      </c>
+      <c r="E30" s="3">
+        <v>189.93</v>
+      </c>
+      <c r="F30">
         <v>57.1</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>20.94</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>-0.28599999999999998</v>
-      </c>
-      <c r="H30">
-        <v>517.91</v>
-      </c>
-      <c r="I30">
-        <v>189.93</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1307,23 +1321,23 @@
       <c r="C31">
         <v>21</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
+        <v>526.35</v>
+      </c>
+      <c r="E31" s="3">
+        <v>189.84</v>
+      </c>
+      <c r="F31">
         <v>58.03</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>20.93</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>-0.33300000000000002</v>
-      </c>
-      <c r="H31">
-        <v>526.35</v>
-      </c>
-      <c r="I31">
-        <v>189.84</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1336,23 +1350,23 @@
       <c r="C32">
         <v>21</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
+        <v>535.78</v>
+      </c>
+      <c r="E32" s="3">
+        <v>191.2</v>
+      </c>
+      <c r="F32">
         <v>59.07</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>21.08</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.38100000000000001</v>
-      </c>
-      <c r="H32">
-        <v>535.78</v>
-      </c>
-      <c r="I32">
-        <v>191.2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1365,23 +1379,23 @@
       <c r="C33">
         <v>20</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
+        <v>563.16999999999996</v>
+      </c>
+      <c r="E33" s="3">
+        <v>181.13</v>
+      </c>
+      <c r="F33">
         <v>62.09</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>19.97</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>-0.15</v>
-      </c>
-      <c r="H33">
-        <v>563.16999999999996</v>
-      </c>
-      <c r="I33">
-        <v>181.13</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1394,23 +1408,23 @@
       <c r="C34">
         <v>24</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
+        <v>467.12</v>
+      </c>
+      <c r="E34" s="3">
+        <v>218.32</v>
+      </c>
+      <c r="F34">
         <v>51.5</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>24.07</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>-0.96199999999999997</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.29199999999999998</v>
-      </c>
-      <c r="H34">
-        <v>467.12</v>
-      </c>
-      <c r="I34">
-        <v>218.32</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1423,23 +1437,23 @@
       <c r="C35">
         <v>21</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
+        <v>545.58000000000004</v>
+      </c>
+      <c r="E35" s="3">
+        <v>190.29</v>
+      </c>
+      <c r="F35">
         <v>60.15</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>20.98</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>0.25</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>-9.5000000000000001E-2</v>
-      </c>
-      <c r="H35">
-        <v>545.58000000000004</v>
-      </c>
-      <c r="I35">
-        <v>190.29</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1452,23 +1466,23 @@
       <c r="C36">
         <v>22</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
+        <v>522.17999999999995</v>
+      </c>
+      <c r="E36" s="3">
+        <v>199.55</v>
+      </c>
+      <c r="F36">
         <v>57.57</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>22</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>-0.74099999999999999</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0</v>
-      </c>
-      <c r="H36">
-        <v>522.17999999999995</v>
-      </c>
-      <c r="I36">
-        <v>199.55</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1481,23 +1495,23 @@
       <c r="C37">
         <v>21</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
+        <v>552.38</v>
+      </c>
+      <c r="E37" s="3">
+        <v>190.39</v>
+      </c>
+      <c r="F37">
         <v>60.9</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>20.99</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="H37">
-        <v>552.38</v>
-      </c>
-      <c r="I37">
-        <v>190.39</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1510,23 +1524,23 @@
       <c r="C38">
         <v>21</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
+        <v>558.37</v>
+      </c>
+      <c r="E38" s="3">
+        <v>190.48</v>
+      </c>
+      <c r="F38">
         <v>61.56</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>21</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>0.91800000000000004</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0</v>
-      </c>
-      <c r="H38">
-        <v>558.37</v>
-      </c>
-      <c r="I38">
-        <v>190.48</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1539,23 +1553,23 @@
       <c r="C39">
         <v>23</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
+        <v>503.13</v>
+      </c>
+      <c r="E39" s="3">
+        <v>209.34</v>
+      </c>
+      <c r="F39">
         <v>55.47</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>23.08</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>-0.94599999999999995</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>0.34799999999999998</v>
-      </c>
-      <c r="H39">
-        <v>503.13</v>
-      </c>
-      <c r="I39">
-        <v>209.34</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1568,23 +1582,23 @@
       <c r="C40">
         <v>22</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
+        <v>538.59</v>
+      </c>
+      <c r="E40" s="3">
+        <v>199.64</v>
+      </c>
+      <c r="F40">
         <v>59.38</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>22.01</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>0.64400000000000002</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H40">
-        <v>538.59</v>
-      </c>
-      <c r="I40">
-        <v>199.64</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1597,23 +1611,23 @@
       <c r="C41">
         <v>22</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
+        <v>533.97</v>
+      </c>
+      <c r="E41" s="3">
+        <v>199</v>
+      </c>
+      <c r="F41">
         <v>58.87</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>21.94</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>-0.22</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>-0.27300000000000002</v>
-      </c>
-      <c r="H41">
-        <v>533.97</v>
-      </c>
-      <c r="I41">
-        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1626,23 +1640,23 @@
       <c r="C42">
         <v>22</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
+        <v>535.69000000000005</v>
+      </c>
+      <c r="E42" s="3">
+        <v>199.64</v>
+      </c>
+      <c r="F42">
         <v>59.06</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>22.01</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H42">
-        <v>535.69000000000005</v>
-      </c>
-      <c r="I42">
-        <v>199.64</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1655,23 +1669,23 @@
       <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
+        <v>532.97</v>
+      </c>
+      <c r="E43" s="3">
+        <v>198.82</v>
+      </c>
+      <c r="F43">
         <v>58.76</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>21.92</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>-0.40699999999999997</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>-0.36399999999999999</v>
-      </c>
-      <c r="H43">
-        <v>532.97</v>
-      </c>
-      <c r="I43">
-        <v>198.82</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1684,23 +1698,23 @@
       <c r="C44">
         <v>25</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
+        <v>471.11</v>
+      </c>
+      <c r="E44" s="3">
+        <v>227.12</v>
+      </c>
+      <c r="F44">
         <v>51.94</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>25.04</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>-0.115</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>0.16</v>
-      </c>
-      <c r="H44">
-        <v>471.11</v>
-      </c>
-      <c r="I44">
-        <v>227.12</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1713,23 +1727,23 @@
       <c r="C45">
         <v>23</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
+        <v>517.73</v>
+      </c>
+      <c r="E45" s="3">
+        <v>208.53</v>
+      </c>
+      <c r="F45">
         <v>57.08</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>22.99</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>-4.2999999999999997E-2</v>
-      </c>
-      <c r="H45">
-        <v>517.73</v>
-      </c>
-      <c r="I45">
-        <v>208.53</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1742,23 +1756,23 @@
       <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
+        <v>545.4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>199.46</v>
+      </c>
+      <c r="F46">
         <v>60.13</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>21.99</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>0.217</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="H46">
-        <v>545.4</v>
-      </c>
-      <c r="I46">
-        <v>199.46</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1771,23 +1785,23 @@
       <c r="C47">
         <v>22</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
+        <v>543.13</v>
+      </c>
+      <c r="E47" s="3">
+        <v>199.46</v>
+      </c>
+      <c r="F47">
         <v>59.88</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>21.99</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>-0.2</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="H47">
-        <v>543.13</v>
-      </c>
-      <c r="I47">
-        <v>199.46</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1800,23 +1814,23 @@
       <c r="C48">
         <v>21</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
+        <v>578.59</v>
+      </c>
+      <c r="E48" s="3">
+        <v>190.93</v>
+      </c>
+      <c r="F48">
         <v>63.79</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>21.05</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>0.23799999999999999</v>
-      </c>
-      <c r="H48">
-        <v>578.59</v>
-      </c>
-      <c r="I48">
-        <v>190.93</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -1829,23 +1843,23 @@
       <c r="C49">
         <v>23</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
+        <v>535.24</v>
+      </c>
+      <c r="E49" s="3">
+        <v>208.07</v>
+      </c>
+      <c r="F49">
         <v>59.01</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>22.94</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>-0.26100000000000001</v>
-      </c>
-      <c r="H49">
-        <v>535.24</v>
-      </c>
-      <c r="I49">
-        <v>208.07</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -1858,23 +1872,23 @@
       <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
+        <v>557.28</v>
+      </c>
+      <c r="E50" s="3">
+        <v>199.64</v>
+      </c>
+      <c r="F50">
         <v>61.44</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>22.01</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>-0.90300000000000002</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H50">
-        <v>557.28</v>
-      </c>
-      <c r="I50">
-        <v>199.64</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -1887,23 +1901,23 @@
       <c r="C51">
         <v>22</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
+        <v>565.9</v>
+      </c>
+      <c r="E51" s="3">
+        <v>199.46</v>
+      </c>
+      <c r="F51">
         <v>62.39</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>21.99</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>0.629</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="H51">
-        <v>565.9</v>
-      </c>
-      <c r="I51">
-        <v>199.46</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -1916,23 +1930,23 @@
       <c r="C52">
         <v>22</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
+        <v>559.54999999999995</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200.09</v>
+      </c>
+      <c r="F52">
         <v>61.69</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>22.06</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>-0.5</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>0.27300000000000002</v>
-      </c>
-      <c r="H52">
-        <v>559.54999999999995</v>
-      </c>
-      <c r="I52">
-        <v>200.09</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -1945,23 +1959,23 @@
       <c r="C53">
         <v>22</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
+        <v>573.79</v>
+      </c>
+      <c r="E53" s="3">
+        <v>199.18</v>
+      </c>
+      <c r="F53">
         <v>63.26</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>21.96</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>0.41299999999999998</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>-0.182</v>
-      </c>
-      <c r="H53">
-        <v>573.79</v>
-      </c>
-      <c r="I53">
-        <v>199.18</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -1974,23 +1988,23 @@
       <c r="C54">
         <v>23</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
+        <v>553.29</v>
+      </c>
+      <c r="E54" s="3">
+        <v>208.62</v>
+      </c>
+      <c r="F54">
         <v>61</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>23</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>0</v>
-      </c>
-      <c r="H54">
-        <v>553.29</v>
-      </c>
-      <c r="I54">
-        <v>208.62</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2003,23 +2017,23 @@
       <c r="C55">
         <v>22</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
+        <v>583.58000000000004</v>
+      </c>
+      <c r="E55" s="3">
+        <v>200</v>
+      </c>
+      <c r="F55">
         <v>64.34</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>22.05</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>0.53100000000000003</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>0.22700000000000001</v>
-      </c>
-      <c r="H55">
-        <v>583.58000000000004</v>
-      </c>
-      <c r="I55">
-        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2032,23 +2046,23 @@
       <c r="C56">
         <v>24</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
+        <v>539.86</v>
+      </c>
+      <c r="E56" s="3">
+        <v>217.87</v>
+      </c>
+      <c r="F56">
         <v>59.52</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>24.02</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>0.88100000000000001</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H56">
-        <v>539.86</v>
-      </c>
-      <c r="I56">
-        <v>217.87</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2061,23 +2075,23 @@
       <c r="C57">
         <v>23</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
+        <v>557.01</v>
+      </c>
+      <c r="E57" s="3">
+        <v>207.8</v>
+      </c>
+      <c r="F57">
         <v>61.41</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>22.91</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>-0.95199999999999996</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>-0.39100000000000001</v>
-      </c>
-      <c r="H57">
-        <v>557.01</v>
-      </c>
-      <c r="I57">
-        <v>207.8</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2090,23 +2104,23 @@
       <c r="C58">
         <v>23</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
+        <v>560.17999999999995</v>
+      </c>
+      <c r="E58" s="3">
+        <v>207.89</v>
+      </c>
+      <c r="F58">
         <v>61.76</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>22.92</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>-0.38700000000000001</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>-0.34799999999999998</v>
-      </c>
-      <c r="H58">
-        <v>560.17999999999995</v>
-      </c>
-      <c r="I58">
-        <v>207.89</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2119,23 +2133,23 @@
       <c r="C59">
         <v>24</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
+        <v>547.03</v>
+      </c>
+      <c r="E59" s="3">
+        <v>217.23</v>
+      </c>
+      <c r="F59">
         <v>60.31</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>23.95</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>0.51700000000000002</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>-0.20799999999999999</v>
-      </c>
-      <c r="H59">
-        <v>547.03</v>
-      </c>
-      <c r="I59">
-        <v>217.23</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2148,23 +2162,23 @@
       <c r="C60">
         <v>23</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
+        <v>574.6</v>
+      </c>
+      <c r="E60" s="3">
+        <v>207.8</v>
+      </c>
+      <c r="F60">
         <v>63.35</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>22.91</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>0.55600000000000005</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>-0.39100000000000001</v>
-      </c>
-      <c r="H60">
-        <v>574.6</v>
-      </c>
-      <c r="I60">
-        <v>207.8</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2177,23 +2191,23 @@
       <c r="C61">
         <v>24</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
+        <v>548.39</v>
+      </c>
+      <c r="E61" s="3">
+        <v>217.51</v>
+      </c>
+      <c r="F61">
         <v>60.46</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>23.98</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>-0.88500000000000001</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>-8.3000000000000004E-2</v>
-      </c>
-      <c r="H61">
-        <v>548.39</v>
-      </c>
-      <c r="I61">
-        <v>217.51</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2206,23 +2220,23 @@
       <c r="C62">
         <v>24</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
+        <v>548.92999999999995</v>
+      </c>
+      <c r="E62" s="3">
+        <v>218.05</v>
+      </c>
+      <c r="F62">
         <v>60.52</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>24.04</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>-0.78700000000000003</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>0.16700000000000001</v>
-      </c>
-      <c r="H62">
-        <v>548.92999999999995</v>
-      </c>
-      <c r="I62">
-        <v>218.05</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2235,23 +2249,23 @@
       <c r="C63">
         <v>24</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
+        <v>557.82000000000005</v>
+      </c>
+      <c r="E63" s="3">
+        <v>217.41</v>
+      </c>
+      <c r="F63">
         <v>61.5</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>23.97</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>0.82</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>-0.125</v>
-      </c>
-      <c r="H63">
-        <v>557.82000000000005</v>
-      </c>
-      <c r="I63">
-        <v>217.41</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2264,23 +2278,23 @@
       <c r="C64">
         <v>21</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
+        <v>637.28</v>
+      </c>
+      <c r="E64" s="3">
+        <v>190.57</v>
+      </c>
+      <c r="F64">
         <v>70.260000000000005</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>21.01</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>0.371</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H64">
-        <v>637.28</v>
-      </c>
-      <c r="I64">
-        <v>190.57</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -2293,23 +2307,23 @@
       <c r="C65">
         <v>23</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
+        <v>583.49</v>
+      </c>
+      <c r="E65" s="3">
+        <v>208.71</v>
+      </c>
+      <c r="F65">
         <v>64.33</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>23.01</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>0.51600000000000001</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H65">
-        <v>583.49</v>
-      </c>
-      <c r="I65">
-        <v>208.71</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2322,23 +2336,23 @@
       <c r="C66">
         <v>23</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
+        <v>581.59</v>
+      </c>
+      <c r="E66" s="3">
+        <v>208.44</v>
+      </c>
+      <c r="F66">
         <v>64.12</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>22.98</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>0.188</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="H66">
-        <v>581.59</v>
-      </c>
-      <c r="I66">
-        <v>208.44</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2351,23 +2365,23 @@
       <c r="C67">
         <v>23</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
+        <v>592.92999999999995</v>
+      </c>
+      <c r="E67" s="3">
+        <v>209.43</v>
+      </c>
+      <c r="F67">
         <v>65.37</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>23.09</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>0.56899999999999995</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>0.39100000000000001</v>
-      </c>
-      <c r="H67">
-        <v>592.92999999999995</v>
-      </c>
-      <c r="I67">
-        <v>209.43</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2380,23 +2394,23 @@
       <c r="C68">
         <v>23</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
+        <v>592.74</v>
+      </c>
+      <c r="E68" s="3">
+        <v>208.34</v>
+      </c>
+      <c r="F68">
         <v>65.349999999999994</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>22.97</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>0.53800000000000003</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>-0.13</v>
-      </c>
-      <c r="H68">
-        <v>592.74</v>
-      </c>
-      <c r="I68">
-        <v>208.34</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2409,23 +2423,23 @@
       <c r="C69">
         <v>23</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
+        <v>600.17999999999995</v>
+      </c>
+      <c r="E69" s="3">
+        <v>208.44</v>
+      </c>
+      <c r="F69">
         <v>66.17</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>22.98</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>0.25800000000000001</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="H69">
-        <v>600.17999999999995</v>
-      </c>
-      <c r="I69">
-        <v>208.44</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -2438,23 +2452,23 @@
       <c r="C70">
         <v>23</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
+        <v>600.09</v>
+      </c>
+      <c r="E70" s="3">
+        <v>209.34</v>
+      </c>
+      <c r="F70">
         <v>66.16</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>23.08</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>0.34799999999999998</v>
-      </c>
-      <c r="H70">
-        <v>600.09</v>
-      </c>
-      <c r="I70">
-        <v>209.34</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2467,23 +2481,23 @@
       <c r="C71">
         <v>24</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
+        <v>579.77</v>
+      </c>
+      <c r="E71" s="3">
+        <v>217.14</v>
+      </c>
+      <c r="F71">
         <v>63.92</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>23.94</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>-0.125</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>-0.25</v>
-      </c>
-      <c r="H71">
-        <v>579.77</v>
-      </c>
-      <c r="I71">
-        <v>217.14</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -2496,23 +2510,23 @@
       <c r="C72">
         <v>25</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
+        <v>561.17999999999995</v>
+      </c>
+      <c r="E72" s="3">
+        <v>227.48</v>
+      </c>
+      <c r="F72">
         <v>61.87</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>25.08</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>-0.21</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>0.32</v>
-      </c>
-      <c r="H72">
-        <v>561.17999999999995</v>
-      </c>
-      <c r="I72">
-        <v>227.48</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2525,23 +2539,23 @@
       <c r="C73">
         <v>25</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
+        <v>559.54999999999995</v>
+      </c>
+      <c r="E73" s="3">
+        <v>226.76</v>
+      </c>
+      <c r="F73">
         <v>61.69</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>25</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>-0.5</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>0</v>
-      </c>
-      <c r="H73">
-        <v>559.54999999999995</v>
-      </c>
-      <c r="I73">
-        <v>226.76</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -2554,23 +2568,23 @@
       <c r="C74">
         <v>24</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
+        <v>592.20000000000005</v>
+      </c>
+      <c r="E74" s="3">
+        <v>217.32</v>
+      </c>
+      <c r="F74">
         <v>65.290000000000006</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>23.96</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>0.44600000000000001</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>-0.16700000000000001</v>
-      </c>
-      <c r="H74">
-        <v>592.20000000000005</v>
-      </c>
-      <c r="I74">
-        <v>217.32</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -2583,23 +2597,23 @@
       <c r="C75">
         <v>24</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
+        <v>593.91999999999996</v>
+      </c>
+      <c r="E75" s="3">
+        <v>217.23</v>
+      </c>
+      <c r="F75">
         <v>65.48</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>23.95</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>0.73799999999999999</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>-0.20799999999999999</v>
-      </c>
-      <c r="H75">
-        <v>593.91999999999996</v>
-      </c>
-      <c r="I75">
-        <v>217.23</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -2612,23 +2626,23 @@
       <c r="C76">
         <v>24</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
+        <v>590.39</v>
+      </c>
+      <c r="E76" s="3">
+        <v>216.96</v>
+      </c>
+      <c r="F76">
         <v>65.09</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>23.92</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>-0.33300000000000002</v>
-      </c>
-      <c r="H76">
-        <v>590.39</v>
-      </c>
-      <c r="I76">
-        <v>216.96</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -2641,23 +2655,23 @@
       <c r="C77">
         <v>24</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
+        <v>588.29999999999995</v>
+      </c>
+      <c r="E77" s="3">
+        <v>217.78</v>
+      </c>
+      <c r="F77">
         <v>64.86</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>24.01</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>-0.215</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H77">
-        <v>588.29999999999995</v>
-      </c>
-      <c r="I77">
-        <v>217.78</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -2670,23 +2684,23 @@
       <c r="C78">
         <v>24</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
+        <v>603.45000000000005</v>
+      </c>
+      <c r="E78" s="3">
+        <v>217.78</v>
+      </c>
+      <c r="F78">
         <v>66.53</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>24.01</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>0.80300000000000005</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H78">
-        <v>603.45000000000005</v>
-      </c>
-      <c r="I78">
-        <v>217.78</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -2699,23 +2713,23 @@
       <c r="C79">
         <v>24</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
+        <v>597.1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>217.23</v>
+      </c>
+      <c r="F79">
         <v>65.83</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>23.95</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>-0.25800000000000001</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>-0.20799999999999999</v>
-      </c>
-      <c r="H79">
-        <v>597.1</v>
-      </c>
-      <c r="I79">
-        <v>217.23</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -2728,23 +2742,23 @@
       <c r="C80">
         <v>24</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
+        <v>611.25</v>
+      </c>
+      <c r="E80" s="3">
+        <v>217.05</v>
+      </c>
+      <c r="F80">
         <v>67.39</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>23.93</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>0.58199999999999996</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>-0.29199999999999998</v>
-      </c>
-      <c r="H80">
-        <v>611.25</v>
-      </c>
-      <c r="I80">
-        <v>217.05</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -2757,23 +2771,23 @@
       <c r="C81">
         <v>25</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
+        <v>584.94000000000005</v>
+      </c>
+      <c r="E81" s="3">
+        <v>227.21</v>
+      </c>
+      <c r="F81">
         <v>64.489999999999995</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>25.05</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>-0.78500000000000003</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>0.2</v>
-      </c>
-      <c r="H81">
-        <v>584.94000000000005</v>
-      </c>
-      <c r="I81">
-        <v>227.21</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -2786,23 +2800,23 @@
       <c r="C82">
         <v>24</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
+        <v>620.67999999999995</v>
+      </c>
+      <c r="E82" s="3">
+        <v>217.87</v>
+      </c>
+      <c r="F82">
         <v>68.430000000000007</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>24.02</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H82">
-        <v>620.67999999999995</v>
-      </c>
-      <c r="I82">
-        <v>217.87</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -2815,23 +2829,23 @@
       <c r="C83">
         <v>25</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
+        <v>603.54</v>
+      </c>
+      <c r="E83" s="3">
+        <v>226.94</v>
+      </c>
+      <c r="F83">
         <v>66.540000000000006</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>25.02</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>0.81799999999999995</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>0.08</v>
-      </c>
-      <c r="H83">
-        <v>603.54</v>
-      </c>
-      <c r="I83">
-        <v>226.94</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -2844,23 +2858,23 @@
       <c r="C84">
         <v>25</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
+        <v>600.09</v>
+      </c>
+      <c r="E84" s="3">
+        <v>227.12</v>
+      </c>
+      <c r="F84">
         <v>66.16</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>25.04</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>0.16</v>
-      </c>
-      <c r="H84">
-        <v>600.09</v>
-      </c>
-      <c r="I84">
-        <v>227.12</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -2873,23 +2887,23 @@
       <c r="C85">
         <v>25</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
+        <v>595.28</v>
+      </c>
+      <c r="E85" s="3">
+        <v>227.3</v>
+      </c>
+      <c r="F85">
         <v>65.63</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>25.06</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>-0.56100000000000005</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>0.24</v>
-      </c>
-      <c r="H85">
-        <v>595.28</v>
-      </c>
-      <c r="I85">
-        <v>227.3</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -2902,23 +2916,23 @@
       <c r="C86">
         <v>24</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
+        <v>622.77</v>
+      </c>
+      <c r="E86" s="3">
+        <v>218.41</v>
+      </c>
+      <c r="F86">
         <v>68.66</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>24.08</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>-0.49299999999999999</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>0.33300000000000002</v>
-      </c>
-      <c r="H86">
-        <v>622.77</v>
-      </c>
-      <c r="I86">
-        <v>218.41</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -2931,23 +2945,23 @@
       <c r="C87">
         <v>25</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
+        <v>610.34</v>
+      </c>
+      <c r="E87" s="3">
+        <v>226.12</v>
+      </c>
+      <c r="F87">
         <v>67.290000000000006</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>24.93</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>0.433</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>-0.28000000000000003</v>
-      </c>
-      <c r="H87">
-        <v>610.34</v>
-      </c>
-      <c r="I87">
-        <v>226.12</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -2960,23 +2974,23 @@
       <c r="C88">
         <v>25</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
+        <v>612.88</v>
+      </c>
+      <c r="E88" s="3">
+        <v>226.76</v>
+      </c>
+      <c r="F88">
         <v>67.569999999999993</v>
       </c>
-      <c r="E88">
+      <c r="G88">
         <v>25</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>0</v>
-      </c>
-      <c r="H88">
-        <v>612.88</v>
-      </c>
-      <c r="I88">
-        <v>226.76</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -2989,23 +3003,23 @@
       <c r="C89">
         <v>25</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
+        <v>610.88</v>
+      </c>
+      <c r="E89" s="3">
+        <v>225.94</v>
+      </c>
+      <c r="F89">
         <v>67.349999999999994</v>
       </c>
-      <c r="E89">
+      <c r="G89">
         <v>24.91</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>-0.95599999999999996</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>-0.36</v>
-      </c>
-      <c r="H89">
-        <v>610.88</v>
-      </c>
-      <c r="I89">
-        <v>225.94</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -3018,23 +3032,23 @@
       <c r="C90">
         <v>25</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
+        <v>613.61</v>
+      </c>
+      <c r="E90" s="3">
+        <v>227.66</v>
+      </c>
+      <c r="F90">
         <v>67.650000000000006</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>25.1</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>-0.51500000000000001</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>0.4</v>
-      </c>
-      <c r="H90">
-        <v>613.61</v>
-      </c>
-      <c r="I90">
-        <v>227.66</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -3047,23 +3061,23 @@
       <c r="C91">
         <v>25</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
+        <v>621.59</v>
+      </c>
+      <c r="E91" s="3">
+        <v>227.3</v>
+      </c>
+      <c r="F91">
         <v>68.53</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>25.06</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>0.77900000000000003</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>0.24</v>
-      </c>
-      <c r="H91">
-        <v>621.59</v>
-      </c>
-      <c r="I91">
-        <v>227.3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3076,23 +3090,23 @@
       <c r="C92">
         <v>26</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
+        <v>599.64</v>
+      </c>
+      <c r="E92" s="3">
+        <v>235.56</v>
+      </c>
+      <c r="F92">
         <v>66.11</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>25.97</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>-0.115</v>
-      </c>
-      <c r="H92">
-        <v>599.64</v>
-      </c>
-      <c r="I92">
-        <v>235.56</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3105,23 +3119,23 @@
       <c r="C93">
         <v>25</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
+        <v>628.21</v>
+      </c>
+      <c r="E93" s="3">
+        <v>227.48</v>
+      </c>
+      <c r="F93">
         <v>69.260000000000005</v>
       </c>
-      <c r="E93">
+      <c r="G93">
         <v>25.08</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>0.377</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>0.32</v>
-      </c>
-      <c r="H93">
-        <v>628.21</v>
-      </c>
-      <c r="I93">
-        <v>227.48</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -3134,23 +3148,23 @@
       <c r="C94">
         <v>29</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
+        <v>541.59</v>
+      </c>
+      <c r="E94" s="3">
+        <v>263.76</v>
+      </c>
+      <c r="F94">
         <v>59.71</v>
       </c>
-      <c r="E94">
+      <c r="G94">
         <v>29.08</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>-0.48299999999999998</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>0.27600000000000002</v>
-      </c>
-      <c r="H94">
-        <v>541.59</v>
-      </c>
-      <c r="I94">
-        <v>263.76</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -3163,23 +3177,23 @@
       <c r="C95">
         <v>26</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
+        <v>602.99</v>
+      </c>
+      <c r="E95" s="3">
+        <v>236.46</v>
+      </c>
+      <c r="F95">
         <v>66.48</v>
       </c>
-      <c r="E95">
+      <c r="G95">
         <v>26.07</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>-0.77600000000000002</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>0.26900000000000002</v>
-      </c>
-      <c r="H95">
-        <v>602.99</v>
-      </c>
-      <c r="I95">
-        <v>236.46</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -3192,23 +3206,23 @@
       <c r="C96">
         <v>26</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
+        <v>607.53</v>
+      </c>
+      <c r="E96" s="3">
+        <v>235.46</v>
+      </c>
+      <c r="F96">
         <v>66.98</v>
       </c>
-      <c r="E96">
+      <c r="G96">
         <v>25.96</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>-0.03</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>-0.154</v>
-      </c>
-      <c r="H96">
-        <v>607.53</v>
-      </c>
-      <c r="I96">
-        <v>235.46</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3221,23 +3235,23 @@
       <c r="C97">
         <v>25</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
+        <v>638.19000000000005</v>
+      </c>
+      <c r="E97" s="3">
+        <v>227.21</v>
+      </c>
+      <c r="F97">
         <v>70.36</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>25.05</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>0.51400000000000001</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>0.2</v>
-      </c>
-      <c r="H97">
-        <v>638.19000000000005</v>
-      </c>
-      <c r="I97">
-        <v>227.21</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -3250,23 +3264,23 @@
       <c r="C98">
         <v>25</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
+        <v>638.37</v>
+      </c>
+      <c r="E98" s="3">
+        <v>227.57</v>
+      </c>
+      <c r="F98">
         <v>70.38</v>
       </c>
-      <c r="E98">
+      <c r="G98">
         <v>25.09</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>0.36</v>
-      </c>
-      <c r="H98">
-        <v>638.37</v>
-      </c>
-      <c r="I98">
-        <v>227.57</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3279,23 +3293,23 @@
       <c r="C99">
         <v>25</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
+        <v>634.47</v>
+      </c>
+      <c r="E99" s="3">
+        <v>227.66</v>
+      </c>
+      <c r="F99">
         <v>69.95</v>
       </c>
-      <c r="E99">
+      <c r="G99">
         <v>25.1</v>
       </c>
-      <c r="F99">
+      <c r="H99">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>0.4</v>
-      </c>
-      <c r="H99">
-        <v>634.47</v>
-      </c>
-      <c r="I99">
-        <v>227.66</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -3308,23 +3322,23 @@
       <c r="C100">
         <v>25</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
+        <v>659.32</v>
+      </c>
+      <c r="E100" s="3">
+        <v>226.03</v>
+      </c>
+      <c r="F100">
         <v>72.69</v>
       </c>
-      <c r="E100">
+      <c r="G100">
         <v>24.92</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>0.95799999999999996</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>-0.32</v>
-      </c>
-      <c r="H100">
-        <v>659.32</v>
-      </c>
-      <c r="I100">
-        <v>226.03</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3337,23 +3351,23 @@
       <c r="C101">
         <v>27</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
+        <v>616.04999999999995</v>
+      </c>
+      <c r="E101" s="3">
+        <v>244.72</v>
+      </c>
+      <c r="F101">
         <v>67.92</v>
       </c>
-      <c r="E101">
+      <c r="G101">
         <v>26.98</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>-7.3999999999999996E-2</v>
-      </c>
-      <c r="H101">
-        <v>616.04999999999995</v>
-      </c>
-      <c r="I101">
-        <v>244.72</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -3366,23 +3380,23 @@
       <c r="C102">
         <v>26</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
+        <v>647.71</v>
+      </c>
+      <c r="E102" s="3">
+        <v>235.56</v>
+      </c>
+      <c r="F102">
         <v>71.41</v>
       </c>
-      <c r="E102">
+      <c r="G102">
         <v>25.97</v>
       </c>
-      <c r="F102">
+      <c r="H102">
         <v>0.57699999999999996</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>-0.115</v>
-      </c>
-      <c r="H102">
-        <v>647.71</v>
-      </c>
-      <c r="I102">
-        <v>235.56</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3395,23 +3409,23 @@
       <c r="C103">
         <v>27</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
+        <v>622.22</v>
+      </c>
+      <c r="E103" s="3">
+        <v>243.99</v>
+      </c>
+      <c r="F103">
         <v>68.599999999999994</v>
       </c>
-      <c r="E103">
+      <c r="G103">
         <v>26.9</v>
       </c>
-      <c r="F103">
+      <c r="H103">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>-0.37</v>
-      </c>
-      <c r="H103">
-        <v>622.22</v>
-      </c>
-      <c r="I103">
-        <v>243.99</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -3424,23 +3438,23 @@
       <c r="C104">
         <v>27</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
+        <v>620.23</v>
+      </c>
+      <c r="E104" s="3">
+        <v>244.26</v>
+      </c>
+      <c r="F104">
         <v>68.38</v>
       </c>
-      <c r="E104">
+      <c r="G104">
         <v>26.93</v>
       </c>
-      <c r="F104">
+      <c r="H104">
         <v>-0.89900000000000002</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>-0.25900000000000001</v>
-      </c>
-      <c r="H104">
-        <v>620.23</v>
-      </c>
-      <c r="I104">
-        <v>244.26</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -3453,23 +3467,23 @@
       <c r="C105">
         <v>26</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
+        <v>656.42</v>
+      </c>
+      <c r="E105" s="3">
+        <v>235.1</v>
+      </c>
+      <c r="F105">
         <v>72.37</v>
       </c>
-      <c r="E105">
+      <c r="G105">
         <v>25.92</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>0.51400000000000001</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>-0.308</v>
-      </c>
-      <c r="H105">
-        <v>656.42</v>
-      </c>
-      <c r="I105">
-        <v>235.1</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3482,23 +3496,23 @@
       <c r="C106">
         <v>28</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
+        <v>605.44000000000005</v>
+      </c>
+      <c r="E106" s="3">
+        <v>253.15</v>
+      </c>
+      <c r="F106">
         <v>66.75</v>
       </c>
-      <c r="E106">
+      <c r="G106">
         <v>27.91</v>
       </c>
-      <c r="F106">
+      <c r="H106">
         <v>-0.373</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>-0.32100000000000001</v>
-      </c>
-      <c r="H106">
-        <v>605.44000000000005</v>
-      </c>
-      <c r="I106">
-        <v>253.15</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -3511,23 +3525,23 @@
       <c r="C107">
         <v>27</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
+        <v>637.91</v>
+      </c>
+      <c r="E107" s="3">
+        <v>244.26</v>
+      </c>
+      <c r="F107">
         <v>70.33</v>
       </c>
-      <c r="E107">
+      <c r="G107">
         <v>26.93</v>
       </c>
-      <c r="F107">
+      <c r="H107">
         <v>0.47099999999999997</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>-0.25900000000000001</v>
-      </c>
-      <c r="H107">
-        <v>637.91</v>
-      </c>
-      <c r="I107">
-        <v>244.26</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -3540,23 +3554,23 @@
       <c r="C108">
         <v>27</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
+        <v>633.74</v>
+      </c>
+      <c r="E108" s="3">
+        <v>244.99</v>
+      </c>
+      <c r="F108">
         <v>69.87</v>
       </c>
-      <c r="E108">
+      <c r="G108">
         <v>27.01</v>
       </c>
-      <c r="F108">
+      <c r="H108">
         <v>-0.186</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H108">
-        <v>633.74</v>
-      </c>
-      <c r="I108">
-        <v>244.99</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -3569,23 +3583,23 @@
       <c r="C109">
         <v>26</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
+        <v>656.05</v>
+      </c>
+      <c r="E109" s="3">
+        <v>235.65</v>
+      </c>
+      <c r="F109">
         <v>72.33</v>
       </c>
-      <c r="E109">
+      <c r="G109">
         <v>25.98</v>
       </c>
-      <c r="F109">
+      <c r="H109">
         <v>-0.91800000000000004</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>-7.6999999999999999E-2</v>
-      </c>
-      <c r="H109">
-        <v>656.05</v>
-      </c>
-      <c r="I109">
-        <v>235.65</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -3598,23 +3612,23 @@
       <c r="C110">
         <v>27</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
+        <v>645.44000000000005</v>
+      </c>
+      <c r="E110" s="3">
+        <v>245.62</v>
+      </c>
+      <c r="F110">
         <v>71.16</v>
       </c>
-      <c r="E110">
+      <c r="G110">
         <v>27.08</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>0.29599999999999999</v>
-      </c>
-      <c r="H110">
-        <v>645.44000000000005</v>
-      </c>
-      <c r="I110">
-        <v>245.62</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -3627,23 +3641,23 @@
       <c r="C111">
         <v>27</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
+        <v>645.99</v>
+      </c>
+      <c r="E111" s="3">
+        <v>244.08</v>
+      </c>
+      <c r="F111">
         <v>71.22</v>
       </c>
-      <c r="E111">
+      <c r="G111">
         <v>26.91</v>
       </c>
-      <c r="F111">
+      <c r="H111">
         <v>0.31</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>-0.33300000000000002</v>
-      </c>
-      <c r="H111">
-        <v>645.99</v>
-      </c>
-      <c r="I111">
-        <v>244.08</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -3656,23 +3670,23 @@
       <c r="C112">
         <v>26</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
+        <v>675.1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>235.28</v>
+      </c>
+      <c r="F112">
         <v>74.430000000000007</v>
       </c>
-      <c r="E112">
+      <c r="G112">
         <v>25.94</v>
       </c>
-      <c r="F112">
+      <c r="H112">
         <v>0.58099999999999996</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>-0.23100000000000001</v>
-      </c>
-      <c r="H112">
-        <v>675.1</v>
-      </c>
-      <c r="I112">
-        <v>235.28</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -3685,23 +3699,23 @@
       <c r="C113">
         <v>27</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
+        <v>658.68</v>
+      </c>
+      <c r="E113" s="3">
+        <v>244.08</v>
+      </c>
+      <c r="F113">
         <v>72.62</v>
       </c>
-      <c r="E113">
+      <c r="G113">
         <v>26.91</v>
       </c>
-      <c r="F113">
+      <c r="H113">
         <v>0.86099999999999999</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>-0.33300000000000002</v>
-      </c>
-      <c r="H113">
-        <v>658.68</v>
-      </c>
-      <c r="I113">
-        <v>244.08</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -3714,23 +3728,23 @@
       <c r="C114">
         <v>26</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
+        <v>680.36</v>
+      </c>
+      <c r="E114" s="3">
+        <v>236.1</v>
+      </c>
+      <c r="F114">
         <v>75.010000000000005</v>
       </c>
-      <c r="E114">
+      <c r="G114">
         <v>26.03</v>
       </c>
-      <c r="F114">
+      <c r="H114">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>0.115</v>
-      </c>
-      <c r="H114">
-        <v>680.36</v>
-      </c>
-      <c r="I114">
-        <v>236.1</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -3743,23 +3757,23 @@
       <c r="C115">
         <v>27</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
+        <v>663.58</v>
+      </c>
+      <c r="E115" s="3">
+        <v>244.35</v>
+      </c>
+      <c r="F115">
         <v>73.16</v>
       </c>
-      <c r="E115">
+      <c r="G115">
         <v>26.94</v>
       </c>
-      <c r="F115">
+      <c r="H115">
         <v>0.219</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>-0.222</v>
-      </c>
-      <c r="H115">
-        <v>663.58</v>
-      </c>
-      <c r="I115">
-        <v>244.35</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -3772,23 +3786,23 @@
       <c r="C116">
         <v>27</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
+        <v>667.12</v>
+      </c>
+      <c r="E116" s="3">
+        <v>244.81</v>
+      </c>
+      <c r="F116">
         <v>73.55</v>
       </c>
-      <c r="E116">
+      <c r="G116">
         <v>26.99</v>
       </c>
-      <c r="F116">
+      <c r="H116">
         <v>0.753</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="H116">
-        <v>667.12</v>
-      </c>
-      <c r="I116">
-        <v>244.81</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -3801,23 +3815,23 @@
       <c r="C117">
         <v>27</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
+        <v>667.03</v>
+      </c>
+      <c r="E117" s="3">
+        <v>243.9</v>
+      </c>
+      <c r="F117">
         <v>73.540000000000006</v>
       </c>
-      <c r="E117">
+      <c r="G117">
         <v>26.89</v>
       </c>
-      <c r="F117">
+      <c r="H117">
         <v>0.74</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>-0.40699999999999997</v>
-      </c>
-      <c r="H117">
-        <v>667.03</v>
-      </c>
-      <c r="I117">
-        <v>243.9</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -3830,23 +3844,23 @@
       <c r="C118">
         <v>28</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
+        <v>649.52</v>
+      </c>
+      <c r="E118" s="3">
+        <v>254.78</v>
+      </c>
+      <c r="F118">
         <v>71.61</v>
       </c>
-      <c r="E118">
+      <c r="G118">
         <v>28.09</v>
       </c>
-      <c r="F118">
+      <c r="H118">
         <v>0.85899999999999999</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>0.32100000000000001</v>
-      </c>
-      <c r="H118">
-        <v>649.52</v>
-      </c>
-      <c r="I118">
-        <v>254.78</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -3859,23 +3873,23 @@
       <c r="C119">
         <v>27</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
+        <v>683.17</v>
+      </c>
+      <c r="E119" s="3">
+        <v>244.81</v>
+      </c>
+      <c r="F119">
         <v>75.319999999999993</v>
       </c>
-      <c r="E119">
+      <c r="G119">
         <v>26.99</v>
       </c>
-      <c r="F119">
+      <c r="H119">
         <v>0.42699999999999999</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="H119">
-        <v>683.17</v>
-      </c>
-      <c r="I119">
-        <v>244.81</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -3888,23 +3902,23 @@
       <c r="C120">
         <v>27</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
+        <v>678.55</v>
+      </c>
+      <c r="E120" s="3">
+        <v>244.54</v>
+      </c>
+      <c r="F120">
         <v>74.81</v>
       </c>
-      <c r="E120">
+      <c r="G120">
         <v>26.96</v>
       </c>
-      <c r="F120">
+      <c r="H120">
         <v>-0.253</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>-0.14799999999999999</v>
-      </c>
-      <c r="H120">
-        <v>678.55</v>
-      </c>
-      <c r="I120">
-        <v>244.54</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -3917,23 +3931,23 @@
       <c r="C121">
         <v>27</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
+        <v>678.55</v>
+      </c>
+      <c r="E121" s="3">
+        <v>244.26</v>
+      </c>
+      <c r="F121">
         <v>74.81</v>
       </c>
-      <c r="E121">
+      <c r="G121">
         <v>26.93</v>
       </c>
-      <c r="F121">
+      <c r="H121">
         <v>-0.253</v>
       </c>
-      <c r="G121">
+      <c r="I121">
         <v>-0.25900000000000001</v>
-      </c>
-      <c r="H121">
-        <v>678.55</v>
-      </c>
-      <c r="I121">
-        <v>244.26</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -3946,23 +3960,23 @@
       <c r="C122">
         <v>26</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
+        <v>709.57</v>
+      </c>
+      <c r="E122" s="3">
+        <v>236.19</v>
+      </c>
+      <c r="F122">
         <v>78.23</v>
       </c>
-      <c r="E122">
+      <c r="G122">
         <v>26.04</v>
       </c>
-      <c r="F122">
+      <c r="H122">
         <v>0.29499999999999998</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <v>0.154</v>
-      </c>
-      <c r="H122">
-        <v>709.57</v>
-      </c>
-      <c r="I122">
-        <v>236.19</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -3975,23 +3989,23 @@
       <c r="C123">
         <v>29</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
+        <v>628.84</v>
+      </c>
+      <c r="E123" s="3">
+        <v>263.49</v>
+      </c>
+      <c r="F123">
         <v>69.33</v>
       </c>
-      <c r="E123">
+      <c r="G123">
         <v>29.05</v>
       </c>
-      <c r="F123">
+      <c r="H123">
         <v>-0.95699999999999996</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>0.17199999999999999</v>
-      </c>
-      <c r="H123">
-        <v>628.84</v>
-      </c>
-      <c r="I123">
-        <v>263.49</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -4004,23 +4018,23 @@
       <c r="C124">
         <v>28</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
+        <v>661.04</v>
+      </c>
+      <c r="E124" s="3">
+        <v>254.51</v>
+      </c>
+      <c r="F124">
         <v>72.88</v>
       </c>
-      <c r="E124">
+      <c r="G124">
         <v>28.06</v>
       </c>
-      <c r="F124">
+      <c r="H124">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="G124">
+      <c r="I124">
         <v>0.214</v>
-      </c>
-      <c r="H124">
-        <v>661.04</v>
-      </c>
-      <c r="I124">
-        <v>254.51</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -4033,23 +4047,23 @@
       <c r="C125">
         <v>28</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
+        <v>665.4</v>
+      </c>
+      <c r="E125" s="3">
+        <v>253.42</v>
+      </c>
+      <c r="F125">
         <v>73.36</v>
       </c>
-      <c r="E125">
+      <c r="G125">
         <v>27.94</v>
       </c>
-      <c r="F125">
+      <c r="H125">
         <v>0.49299999999999999</v>
       </c>
-      <c r="G125">
+      <c r="I125">
         <v>-0.214</v>
-      </c>
-      <c r="H125">
-        <v>665.4</v>
-      </c>
-      <c r="I125">
-        <v>253.42</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -4062,23 +4076,23 @@
       <c r="C126">
         <v>28</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
+        <v>685.53</v>
+      </c>
+      <c r="E126" s="3">
+        <v>254.69</v>
+      </c>
+      <c r="F126">
         <v>75.58</v>
       </c>
-      <c r="E126">
+      <c r="G126">
         <v>28.08</v>
       </c>
-      <c r="F126">
+      <c r="H126">
         <v>0.77300000000000002</v>
       </c>
-      <c r="G126">
+      <c r="I126">
         <v>0.28599999999999998</v>
-      </c>
-      <c r="H126">
-        <v>685.53</v>
-      </c>
-      <c r="I126">
-        <v>254.69</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -4091,23 +4105,23 @@
       <c r="C127">
         <v>28</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
+        <v>676.37</v>
+      </c>
+      <c r="E127" s="3">
+        <v>253.79</v>
+      </c>
+      <c r="F127">
         <v>74.569999999999993</v>
       </c>
-      <c r="E127">
+      <c r="G127">
         <v>27.98</v>
       </c>
-      <c r="F127">
+      <c r="H127">
         <v>-0.57299999999999995</v>
       </c>
-      <c r="G127">
+      <c r="I127">
         <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="H127">
-        <v>676.37</v>
-      </c>
-      <c r="I127">
-        <v>253.79</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -4120,23 +4134,23 @@
       <c r="C128">
         <v>29</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
+        <v>657.32</v>
+      </c>
+      <c r="E128" s="3">
+        <v>262.13</v>
+      </c>
+      <c r="F128">
         <v>72.47</v>
       </c>
-      <c r="E128">
+      <c r="G128">
         <v>28.9</v>
       </c>
-      <c r="F128">
+      <c r="H128">
         <v>-0.72599999999999998</v>
       </c>
-      <c r="G128">
+      <c r="I128">
         <v>-0.34499999999999997</v>
-      </c>
-      <c r="H128">
-        <v>657.32</v>
-      </c>
-      <c r="I128">
-        <v>262.13</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -4149,23 +4163,23 @@
       <c r="C129">
         <v>29</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="3">
+        <v>661.22</v>
+      </c>
+      <c r="E129" s="3">
+        <v>264.13</v>
+      </c>
+      <c r="F129">
         <v>72.900000000000006</v>
       </c>
-      <c r="E129">
+      <c r="G129">
         <v>29.12</v>
       </c>
-      <c r="F129">
+      <c r="H129">
         <v>-0.13700000000000001</v>
       </c>
-      <c r="G129">
+      <c r="I129">
         <v>0.41399999999999998</v>
-      </c>
-      <c r="H129">
-        <v>661.22</v>
-      </c>
-      <c r="I129">
-        <v>264.13</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -4178,23 +4192,23 @@
       <c r="C130">
         <v>28</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="3">
+        <v>699.86</v>
+      </c>
+      <c r="E130" s="3">
+        <v>253.24</v>
+      </c>
+      <c r="F130">
         <v>77.16</v>
       </c>
-      <c r="E130">
+      <c r="G130">
         <v>27.92</v>
       </c>
-      <c r="F130">
+      <c r="H130">
         <v>0.20799999999999999</v>
       </c>
-      <c r="G130">
+      <c r="I130">
         <v>-0.28599999999999998</v>
-      </c>
-      <c r="H130">
-        <v>699.86</v>
-      </c>
-      <c r="I130">
-        <v>253.24</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -4207,23 +4221,23 @@
       <c r="C131">
         <v>29</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="3">
+        <v>684.81</v>
+      </c>
+      <c r="E131" s="3">
+        <v>263.22000000000003</v>
+      </c>
+      <c r="F131">
         <v>75.5</v>
       </c>
-      <c r="E131">
+      <c r="G131">
         <v>29.02</v>
       </c>
-      <c r="F131">
+      <c r="H131">
         <v>0.66700000000000004</v>
       </c>
-      <c r="G131">
+      <c r="I131">
         <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="H131">
-        <v>684.81</v>
-      </c>
-      <c r="I131">
-        <v>263.22000000000003</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -4236,23 +4250,23 @@
       <c r="C132">
         <v>28</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="3">
+        <v>704.49</v>
+      </c>
+      <c r="E132" s="3">
+        <v>253.06</v>
+      </c>
+      <c r="F132">
         <v>77.67</v>
       </c>
-      <c r="E132">
+      <c r="G132">
         <v>27.9</v>
       </c>
-      <c r="F132">
+      <c r="H132">
         <v>-0.42299999999999999</v>
       </c>
-      <c r="G132">
+      <c r="I132">
         <v>-0.35699999999999998</v>
-      </c>
-      <c r="H132">
-        <v>704.49</v>
-      </c>
-      <c r="I132">
-        <v>253.06</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -4265,23 +4279,23 @@
       <c r="C133">
         <v>31</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
+        <v>649.79999999999995</v>
+      </c>
+      <c r="E133" s="3">
+        <v>281.08999999999997</v>
+      </c>
+      <c r="F133">
         <v>71.64</v>
       </c>
-      <c r="E133">
+      <c r="G133">
         <v>30.99</v>
       </c>
-      <c r="F133">
+      <c r="H133">
         <v>0.90100000000000002</v>
       </c>
-      <c r="G133">
+      <c r="I133">
         <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="H133">
-        <v>649.79999999999995</v>
-      </c>
-      <c r="I133">
-        <v>281.08999999999997</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -4294,23 +4308,23 @@
       <c r="C134">
         <v>29</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
+        <v>690.88</v>
+      </c>
+      <c r="E134" s="3">
+        <v>263.58</v>
+      </c>
+      <c r="F134">
         <v>76.17</v>
       </c>
-      <c r="E134">
+      <c r="G134">
         <v>29.06</v>
       </c>
-      <c r="F134">
+      <c r="H134">
         <v>0.224</v>
       </c>
-      <c r="G134">
+      <c r="I134">
         <v>0.20699999999999999</v>
-      </c>
-      <c r="H134">
-        <v>690.88</v>
-      </c>
-      <c r="I134">
-        <v>263.58</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -4323,23 +4337,23 @@
       <c r="C135">
         <v>28</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
+        <v>715.37</v>
+      </c>
+      <c r="E135" s="3">
+        <v>253.15</v>
+      </c>
+      <c r="F135">
         <v>78.87</v>
       </c>
-      <c r="E135">
+      <c r="G135">
         <v>27.91</v>
       </c>
-      <c r="F135">
+      <c r="H135">
         <v>-0.16500000000000001</v>
       </c>
-      <c r="G135">
+      <c r="I135">
         <v>-0.32100000000000001</v>
-      </c>
-      <c r="H135">
-        <v>715.37</v>
-      </c>
-      <c r="I135">
-        <v>253.15</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -4352,23 +4366,23 @@
       <c r="C136">
         <v>28</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
+        <v>719.46</v>
+      </c>
+      <c r="E136" s="3">
+        <v>254.15</v>
+      </c>
+      <c r="F136">
         <v>79.319999999999993</v>
       </c>
-      <c r="E136">
+      <c r="G136">
         <v>28.02</v>
       </c>
-      <c r="F136">
+      <c r="H136">
         <v>0.40500000000000003</v>
       </c>
-      <c r="G136">
+      <c r="I136">
         <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H136">
-        <v>719.46</v>
-      </c>
-      <c r="I136">
-        <v>254.15</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -4381,23 +4395,23 @@
       <c r="C137">
         <v>28</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
+        <v>721</v>
+      </c>
+      <c r="E137" s="3">
+        <v>253.33</v>
+      </c>
+      <c r="F137">
         <v>79.489999999999995</v>
       </c>
-      <c r="E137">
+      <c r="G137">
         <v>27.93</v>
       </c>
-      <c r="F137">
+      <c r="H137">
         <v>0.62</v>
       </c>
-      <c r="G137">
+      <c r="I137">
         <v>-0.25</v>
-      </c>
-      <c r="H137">
-        <v>721</v>
-      </c>
-      <c r="I137">
-        <v>253.33</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -4410,23 +4424,23 @@
       <c r="C138">
         <v>29</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
+        <v>699.68</v>
+      </c>
+      <c r="E138" s="3">
+        <v>263.58</v>
+      </c>
+      <c r="F138">
         <v>77.14</v>
       </c>
-      <c r="E138">
+      <c r="G138">
         <v>29.06</v>
       </c>
-      <c r="F138">
+      <c r="H138">
         <v>0.182</v>
       </c>
-      <c r="G138">
+      <c r="I138">
         <v>0.20699999999999999</v>
-      </c>
-      <c r="H138">
-        <v>699.68</v>
-      </c>
-      <c r="I138">
-        <v>263.58</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -4439,23 +4453,23 @@
       <c r="C139">
         <v>30</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
+        <v>692.7</v>
+      </c>
+      <c r="E139" s="3">
+        <v>271.47000000000003</v>
+      </c>
+      <c r="F139">
         <v>76.37</v>
       </c>
-      <c r="E139">
+      <c r="G139">
         <v>29.93</v>
       </c>
-      <c r="F139">
+      <c r="H139">
         <v>-0.81799999999999995</v>
       </c>
-      <c r="G139">
+      <c r="I139">
         <v>-0.23300000000000001</v>
-      </c>
-      <c r="H139">
-        <v>692.7</v>
-      </c>
-      <c r="I139">
-        <v>271.47000000000003</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -4468,23 +4482,23 @@
       <c r="C140">
         <v>29</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
+        <v>718.82</v>
+      </c>
+      <c r="E140" s="3">
+        <v>262.68</v>
+      </c>
+      <c r="F140">
         <v>79.25</v>
       </c>
-      <c r="E140">
+      <c r="G140">
         <v>28.96</v>
       </c>
-      <c r="F140">
+      <c r="H140">
         <v>-0.93799999999999994</v>
       </c>
-      <c r="G140">
+      <c r="I140">
         <v>-0.13800000000000001</v>
-      </c>
-      <c r="H140">
-        <v>718.82</v>
-      </c>
-      <c r="I140">
-        <v>262.68</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -4497,23 +4511,23 @@
       <c r="C141">
         <v>29</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
+        <v>724.54</v>
+      </c>
+      <c r="E141" s="3">
+        <v>263.31</v>
+      </c>
+      <c r="F141">
         <v>79.88</v>
       </c>
-      <c r="E141">
+      <c r="G141">
         <v>29.03</v>
       </c>
-      <c r="F141">
+      <c r="H141">
         <v>-0.15</v>
       </c>
-      <c r="G141">
+      <c r="I141">
         <v>0.10299999999999999</v>
-      </c>
-      <c r="H141">
-        <v>724.54</v>
-      </c>
-      <c r="I141">
-        <v>263.31</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -4526,23 +4540,23 @@
       <c r="C142">
         <v>30</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
+        <v>721.36</v>
+      </c>
+      <c r="E142" s="3">
+        <v>271.75</v>
+      </c>
+      <c r="F142">
         <v>79.53</v>
       </c>
-      <c r="E142">
+      <c r="G142">
         <v>29.96</v>
       </c>
-      <c r="F142">
+      <c r="H142">
         <v>0.67100000000000004</v>
       </c>
-      <c r="G142">
+      <c r="I142">
         <v>-0.13300000000000001</v>
-      </c>
-      <c r="H142">
-        <v>721.36</v>
-      </c>
-      <c r="I142">
-        <v>271.75</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -4555,23 +4569,23 @@
       <c r="C143">
         <v>33</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
+        <v>654.6</v>
+      </c>
+      <c r="E143" s="3">
+        <v>299.41000000000003</v>
+      </c>
+      <c r="F143">
         <v>72.17</v>
       </c>
-      <c r="E143">
+      <c r="G143">
         <v>33.01</v>
       </c>
-      <c r="F143">
+      <c r="H143">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G143">
+      <c r="I143">
         <v>0.03</v>
-      </c>
-      <c r="H143">
-        <v>654.6</v>
-      </c>
-      <c r="I143">
-        <v>299.41000000000003</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -4584,23 +4598,23 @@
       <c r="C144">
         <v>30</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
+        <v>729.71</v>
+      </c>
+      <c r="E144" s="3">
+        <v>272.56</v>
+      </c>
+      <c r="F144">
         <v>80.45</v>
       </c>
-      <c r="E144">
+      <c r="G144">
         <v>30.05</v>
       </c>
-      <c r="F144">
+      <c r="H144">
         <v>-0.67900000000000005</v>
       </c>
-      <c r="G144">
+      <c r="I144">
         <v>0.16700000000000001</v>
-      </c>
-      <c r="H144">
-        <v>729.71</v>
-      </c>
-      <c r="I144">
-        <v>272.56</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -4613,23 +4627,23 @@
       <c r="C145">
         <v>30</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
+        <v>732.06</v>
+      </c>
+      <c r="E145" s="3">
+        <v>273.2</v>
+      </c>
+      <c r="F145">
         <v>80.709999999999994</v>
       </c>
-      <c r="E145">
+      <c r="G145">
         <v>30.12</v>
       </c>
-      <c r="F145">
+      <c r="H145">
         <v>-0.35799999999999998</v>
       </c>
-      <c r="G145">
+      <c r="I145">
         <v>0.4</v>
-      </c>
-      <c r="H145">
-        <v>732.06</v>
-      </c>
-      <c r="I145">
-        <v>273.2</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -4642,23 +4656,23 @@
       <c r="C146">
         <v>29</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
+        <v>765.71</v>
+      </c>
+      <c r="E146" s="3">
+        <v>263.22000000000003</v>
+      </c>
+      <c r="F146">
         <v>84.42</v>
       </c>
-      <c r="E146">
+      <c r="G146">
         <v>29.02</v>
       </c>
-      <c r="F146">
+      <c r="H146">
         <v>0.5</v>
       </c>
-      <c r="G146">
+      <c r="I146">
         <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="H146">
-        <v>765.71</v>
-      </c>
-      <c r="I146">
-        <v>263.22000000000003</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -4671,23 +4685,23 @@
       <c r="C147">
         <v>31</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="3">
+        <v>741.68</v>
+      </c>
+      <c r="E147" s="3">
+        <v>280.63</v>
+      </c>
+      <c r="F147">
         <v>81.77</v>
       </c>
-      <c r="E147">
+      <c r="G147">
         <v>30.94</v>
       </c>
-      <c r="F147">
+      <c r="H147">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="G147">
+      <c r="I147">
         <v>-0.19400000000000001</v>
-      </c>
-      <c r="H147">
-        <v>741.68</v>
-      </c>
-      <c r="I147">
-        <v>280.63</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -4700,23 +4714,23 @@
       <c r="C148">
         <v>30</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="3">
+        <v>776.51</v>
+      </c>
+      <c r="E148" s="3">
+        <v>271.2</v>
+      </c>
+      <c r="F148">
         <v>85.61</v>
       </c>
-      <c r="E148">
+      <c r="G148">
         <v>29.9</v>
       </c>
-      <c r="F148">
+      <c r="H148">
         <v>0.71799999999999997</v>
       </c>
-      <c r="G148">
+      <c r="I148">
         <v>-0.33300000000000002</v>
-      </c>
-      <c r="H148">
-        <v>776.51</v>
-      </c>
-      <c r="I148">
-        <v>271.2</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -4729,23 +4743,23 @@
       <c r="C149">
         <v>32</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="3">
+        <v>725.35</v>
+      </c>
+      <c r="E149" s="3">
+        <v>290.07</v>
+      </c>
+      <c r="F149">
         <v>79.97</v>
       </c>
-      <c r="E149">
+      <c r="G149">
         <v>31.98</v>
       </c>
-      <c r="F149">
+      <c r="H149">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="G149">
+      <c r="I149">
         <v>-6.2E-2</v>
-      </c>
-      <c r="H149">
-        <v>725.35</v>
-      </c>
-      <c r="I149">
-        <v>290.07</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -4758,23 +4772,23 @@
       <c r="C150">
         <v>31</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="3">
+        <v>750.39</v>
+      </c>
+      <c r="E150" s="3">
+        <v>282</v>
+      </c>
+      <c r="F150">
         <v>82.73</v>
       </c>
-      <c r="E150">
+      <c r="G150">
         <v>31.09</v>
       </c>
-      <c r="F150">
+      <c r="H150">
         <v>-0.32500000000000001</v>
       </c>
-      <c r="G150">
+      <c r="I150">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="H150">
-        <v>750.39</v>
-      </c>
-      <c r="I150">
-        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -4787,23 +4801,23 @@
       <c r="C151">
         <v>31</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="3">
+        <v>764.9</v>
+      </c>
+      <c r="E151" s="3">
+        <v>281.72000000000003</v>
+      </c>
+      <c r="F151">
         <v>84.33</v>
       </c>
-      <c r="E151">
+      <c r="G151">
         <v>31.06</v>
       </c>
-      <c r="F151">
+      <c r="H151">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G151">
+      <c r="I151">
         <v>0.19400000000000001</v>
-      </c>
-      <c r="H151">
-        <v>764.9</v>
-      </c>
-      <c r="I151">
-        <v>281.72000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -4816,23 +4830,23 @@
       <c r="C152">
         <v>32</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="3">
+        <v>747.57</v>
+      </c>
+      <c r="E152" s="3">
+        <v>289.61</v>
+      </c>
+      <c r="F152">
         <v>82.42</v>
       </c>
-      <c r="E152">
+      <c r="G152">
         <v>31.93</v>
       </c>
-      <c r="F152">
+      <c r="H152">
         <v>0.51200000000000001</v>
       </c>
-      <c r="G152">
+      <c r="I152">
         <v>-0.219</v>
-      </c>
-      <c r="H152">
-        <v>747.57</v>
-      </c>
-      <c r="I152">
-        <v>289.61</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -4845,23 +4859,23 @@
       <c r="C153">
         <v>32</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="3">
+        <v>739.77</v>
+      </c>
+      <c r="E153" s="3">
+        <v>290.7</v>
+      </c>
+      <c r="F153">
         <v>81.56</v>
       </c>
-      <c r="E153">
+      <c r="G153">
         <v>32.049999999999997</v>
       </c>
-      <c r="F153">
+      <c r="H153">
         <v>-0.53700000000000003</v>
       </c>
-      <c r="G153">
+      <c r="I153">
         <v>0.156</v>
-      </c>
-      <c r="H153">
-        <v>739.77</v>
-      </c>
-      <c r="I153">
-        <v>290.7</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -4874,23 +4888,23 @@
       <c r="C154">
         <v>31</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="3">
+        <v>774.97</v>
+      </c>
+      <c r="E154" s="3">
+        <v>280.27</v>
+      </c>
+      <c r="F154">
         <v>85.44</v>
       </c>
-      <c r="E154">
+      <c r="G154">
         <v>30.9</v>
       </c>
-      <c r="F154">
+      <c r="H154">
         <v>0.51800000000000002</v>
       </c>
-      <c r="G154">
+      <c r="I154">
         <v>-0.32300000000000001</v>
-      </c>
-      <c r="H154">
-        <v>774.97</v>
-      </c>
-      <c r="I154">
-        <v>280.27</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -4903,23 +4917,23 @@
       <c r="C155">
         <v>39</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="3">
+        <v>619.5</v>
+      </c>
+      <c r="E155" s="3">
+        <v>353.92</v>
+      </c>
+      <c r="F155">
         <v>68.3</v>
       </c>
-      <c r="E155">
+      <c r="G155">
         <v>39.020000000000003</v>
       </c>
-      <c r="F155">
+      <c r="H155">
         <v>0.441</v>
       </c>
-      <c r="G155">
+      <c r="I155">
         <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H155">
-        <v>619.5</v>
-      </c>
-      <c r="I155">
-        <v>353.92</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -4932,23 +4946,23 @@
       <c r="C156">
         <v>33</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="3">
+        <v>733.24</v>
+      </c>
+      <c r="E156" s="3">
+        <v>299.32</v>
+      </c>
+      <c r="F156">
         <v>80.84</v>
       </c>
-      <c r="E156">
+      <c r="G156">
         <v>33</v>
       </c>
-      <c r="F156">
+      <c r="H156">
         <v>-0.19800000000000001</v>
       </c>
-      <c r="G156">
+      <c r="I156">
         <v>0</v>
-      </c>
-      <c r="H156">
-        <v>733.24</v>
-      </c>
-      <c r="I156">
-        <v>299.32</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -4961,23 +4975,23 @@
       <c r="C157">
         <v>32</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="3">
+        <v>770.43</v>
+      </c>
+      <c r="E157" s="3">
+        <v>290.79000000000002</v>
+      </c>
+      <c r="F157">
         <v>84.94</v>
       </c>
-      <c r="E157">
+      <c r="G157">
         <v>32.06</v>
       </c>
-      <c r="F157">
+      <c r="H157">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="G157">
+      <c r="I157">
         <v>0.188</v>
-      </c>
-      <c r="H157">
-        <v>770.43</v>
-      </c>
-      <c r="I157">
-        <v>290.79000000000002</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -4990,23 +5004,23 @@
       <c r="C158">
         <v>37</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="3">
+        <v>666.67</v>
+      </c>
+      <c r="E158" s="3">
+        <v>335.78</v>
+      </c>
+      <c r="F158">
         <v>73.5</v>
       </c>
-      <c r="E158">
+      <c r="G158">
         <v>37.020000000000003</v>
       </c>
-      <c r="F158">
+      <c r="H158">
         <v>-0.67600000000000005</v>
       </c>
-      <c r="G158">
+      <c r="I158">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H158">
-        <v>666.67</v>
-      </c>
-      <c r="I158">
-        <v>335.78</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -5019,23 +5033,23 @@
       <c r="C159">
         <v>33</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="3">
+        <v>752.11</v>
+      </c>
+      <c r="E159" s="3">
+        <v>298.77999999999997</v>
+      </c>
+      <c r="F159">
         <v>82.92</v>
       </c>
-      <c r="E159">
+      <c r="G159">
         <v>32.94</v>
       </c>
-      <c r="F159">
+      <c r="H159">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="G159">
+      <c r="I159">
         <v>-0.182</v>
-      </c>
-      <c r="H159">
-        <v>752.11</v>
-      </c>
-      <c r="I159">
-        <v>298.77999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -5048,23 +5062,23 @@
       <c r="C160">
         <v>33</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="3">
+        <v>747.57</v>
+      </c>
+      <c r="E160" s="3">
+        <v>299.41000000000003</v>
+      </c>
+      <c r="F160">
         <v>82.42</v>
       </c>
-      <c r="E160">
+      <c r="G160">
         <v>33.01</v>
       </c>
-      <c r="F160">
+      <c r="H160">
         <v>-0.69899999999999995</v>
       </c>
-      <c r="G160">
+      <c r="I160">
         <v>0.03</v>
-      </c>
-      <c r="H160">
-        <v>747.57</v>
-      </c>
-      <c r="I160">
-        <v>299.41000000000003</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -5077,23 +5091,23 @@
       <c r="C161">
         <v>32</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="3">
+        <v>786.94</v>
+      </c>
+      <c r="E161" s="3">
+        <v>289.89</v>
+      </c>
+      <c r="F161">
         <v>86.76</v>
       </c>
-      <c r="E161">
+      <c r="G161">
         <v>31.96</v>
       </c>
-      <c r="F161">
+      <c r="H161">
         <v>0.88400000000000001</v>
       </c>
-      <c r="G161">
+      <c r="I161">
         <v>-0.125</v>
-      </c>
-      <c r="H161">
-        <v>786.94</v>
-      </c>
-      <c r="I161">
-        <v>289.89</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -5106,23 +5120,23 @@
       <c r="C162">
         <v>33</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="3">
+        <v>769.16</v>
+      </c>
+      <c r="E162" s="3">
+        <v>298.87</v>
+      </c>
+      <c r="F162">
         <v>84.8</v>
       </c>
-      <c r="E162">
+      <c r="G162">
         <v>32.950000000000003</v>
       </c>
-      <c r="F162">
+      <c r="H162">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G162">
+      <c r="I162">
         <v>-0.152</v>
-      </c>
-      <c r="H162">
-        <v>769.16</v>
-      </c>
-      <c r="I162">
-        <v>298.87</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -5135,23 +5149,23 @@
       <c r="C163">
         <v>34</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="3">
+        <v>748.21</v>
+      </c>
+      <c r="E163" s="3">
+        <v>308.48</v>
+      </c>
+      <c r="F163">
         <v>82.49</v>
       </c>
-      <c r="E163">
+      <c r="G163">
         <v>34.01</v>
       </c>
-      <c r="F163">
+      <c r="H163">
         <v>0.59799999999999998</v>
       </c>
-      <c r="G163">
+      <c r="I163">
         <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H163">
-        <v>748.21</v>
-      </c>
-      <c r="I163">
-        <v>308.48</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -5164,23 +5178,23 @@
       <c r="C164">
         <v>33</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="3">
+        <v>778.87</v>
+      </c>
+      <c r="E164" s="3">
+        <v>300.23</v>
+      </c>
+      <c r="F164">
         <v>85.87</v>
       </c>
-      <c r="E164">
+      <c r="G164">
         <v>33.1</v>
       </c>
-      <c r="F164">
+      <c r="H164">
         <v>-0.151</v>
       </c>
-      <c r="G164">
+      <c r="I164">
         <v>0.30299999999999999</v>
-      </c>
-      <c r="H164">
-        <v>778.87</v>
-      </c>
-      <c r="I164">
-        <v>300.23</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -5193,23 +5207,23 @@
       <c r="C165">
         <v>34</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="3">
+        <v>768.44</v>
+      </c>
+      <c r="E165" s="3">
+        <v>307.20999999999998</v>
+      </c>
+      <c r="F165">
         <v>84.72</v>
       </c>
-      <c r="E165">
+      <c r="G165">
         <v>33.869999999999997</v>
       </c>
-      <c r="F165">
+      <c r="H165">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G165">
+      <c r="I165">
         <v>-0.38200000000000001</v>
-      </c>
-      <c r="H165">
-        <v>768.44</v>
-      </c>
-      <c r="I165">
-        <v>307.20999999999998</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -5222,23 +5236,23 @@
       <c r="C166">
         <v>35</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="3">
+        <v>742.59</v>
+      </c>
+      <c r="E166" s="3">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="F166">
         <v>81.87</v>
       </c>
-      <c r="E166">
+      <c r="G166">
         <v>34.96</v>
       </c>
-      <c r="F166">
+      <c r="H166">
         <v>-0.159</v>
       </c>
-      <c r="G166">
+      <c r="I166">
         <v>-0.114</v>
-      </c>
-      <c r="H166">
-        <v>742.59</v>
-      </c>
-      <c r="I166">
-        <v>317.10000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -5251,23 +5265,23 @@
       <c r="C167">
         <v>33</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="3">
+        <v>792.2</v>
+      </c>
+      <c r="E167" s="3">
+        <v>298.68</v>
+      </c>
+      <c r="F167">
         <v>87.34</v>
       </c>
-      <c r="E167">
+      <c r="G167">
         <v>32.93</v>
       </c>
-      <c r="F167">
+      <c r="H167">
         <v>0.39100000000000001</v>
       </c>
-      <c r="G167">
+      <c r="I167">
         <v>-0.21199999999999999</v>
-      </c>
-      <c r="H167">
-        <v>792.2</v>
-      </c>
-      <c r="I167">
-        <v>298.68</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -5280,23 +5294,23 @@
       <c r="C168">
         <v>36</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="3">
+        <v>721.72</v>
+      </c>
+      <c r="E168" s="3">
+        <v>327.26</v>
+      </c>
+      <c r="F168">
         <v>79.569999999999993</v>
       </c>
-      <c r="E168">
+      <c r="G168">
         <v>36.08</v>
       </c>
-      <c r="F168">
+      <c r="H168">
         <v>-0.53800000000000003</v>
       </c>
-      <c r="G168">
+      <c r="I168">
         <v>0.222</v>
-      </c>
-      <c r="H168">
-        <v>721.72</v>
-      </c>
-      <c r="I168">
-        <v>327.26</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -5309,23 +5323,23 @@
       <c r="C169">
         <v>34</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="3">
+        <v>776.6</v>
+      </c>
+      <c r="E169" s="3">
+        <v>308.20999999999998</v>
+      </c>
+      <c r="F169">
         <v>85.62</v>
       </c>
-      <c r="E169">
+      <c r="G169">
         <v>33.979999999999997</v>
       </c>
-      <c r="F169">
+      <c r="H169">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G169">
+      <c r="I169">
         <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="H169">
-        <v>776.6</v>
-      </c>
-      <c r="I169">
-        <v>308.20999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -5338,23 +5352,23 @@
       <c r="C170">
         <v>33</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="3">
+        <v>800.82</v>
+      </c>
+      <c r="E170" s="3">
+        <v>298.41000000000003</v>
+      </c>
+      <c r="F170">
         <v>88.29</v>
       </c>
-      <c r="E170">
+      <c r="G170">
         <v>32.9</v>
       </c>
-      <c r="F170">
+      <c r="H170">
         <v>0.33</v>
       </c>
-      <c r="G170">
+      <c r="I170">
         <v>-0.30299999999999999</v>
-      </c>
-      <c r="H170">
-        <v>800.82</v>
-      </c>
-      <c r="I170">
-        <v>298.41000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -5367,23 +5381,23 @@
       <c r="C171">
         <v>35</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="3">
+        <v>752.83</v>
+      </c>
+      <c r="E171" s="3">
+        <v>318.55</v>
+      </c>
+      <c r="F171">
         <v>83</v>
       </c>
-      <c r="E171">
+      <c r="G171">
         <v>35.119999999999997</v>
       </c>
-      <c r="F171">
+      <c r="H171">
         <v>0</v>
       </c>
-      <c r="G171">
+      <c r="I171">
         <v>0.34300000000000003</v>
-      </c>
-      <c r="H171">
-        <v>752.83</v>
-      </c>
-      <c r="I171">
-        <v>318.55</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -5396,23 +5410,23 @@
       <c r="C172">
         <v>35</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="3">
+        <v>753.74</v>
+      </c>
+      <c r="E172" s="3">
+        <v>316.55</v>
+      </c>
+      <c r="F172">
         <v>83.1</v>
       </c>
-      <c r="E172">
+      <c r="G172">
         <v>34.9</v>
       </c>
-      <c r="F172">
+      <c r="H172">
         <v>0.12</v>
       </c>
-      <c r="G172">
+      <c r="I172">
         <v>-0.28599999999999998</v>
-      </c>
-      <c r="H172">
-        <v>753.74</v>
-      </c>
-      <c r="I172">
-        <v>316.55</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -5425,23 +5439,23 @@
       <c r="C173">
         <v>32</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="3">
+        <v>832.83</v>
+      </c>
+      <c r="E173" s="3">
+        <v>291.16000000000003</v>
+      </c>
+      <c r="F173">
         <v>91.82</v>
       </c>
-      <c r="E173">
+      <c r="G173">
         <v>32.1</v>
       </c>
-      <c r="F173">
+      <c r="H173">
         <v>0.90100000000000002</v>
       </c>
-      <c r="G173">
+      <c r="I173">
         <v>0.313</v>
-      </c>
-      <c r="H173">
-        <v>832.83</v>
-      </c>
-      <c r="I173">
-        <v>291.16000000000003</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -5454,23 +5468,23 @@
       <c r="C174">
         <v>34</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="3">
+        <v>774.06</v>
+      </c>
+      <c r="E174" s="3">
+        <v>307.66000000000003</v>
+      </c>
+      <c r="F174">
         <v>85.34</v>
       </c>
-      <c r="E174">
+      <c r="G174">
         <v>33.92</v>
       </c>
-      <c r="F174">
+      <c r="H174">
         <v>-0.76700000000000002</v>
       </c>
-      <c r="G174">
+      <c r="I174">
         <v>-0.23499999999999999</v>
-      </c>
-      <c r="H174">
-        <v>774.06</v>
-      </c>
-      <c r="I174">
-        <v>307.66000000000003</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -5483,23 +5497,23 @@
       <c r="C175">
         <v>33</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="3">
+        <v>814.15</v>
+      </c>
+      <c r="E175" s="3">
+        <v>299.32</v>
+      </c>
+      <c r="F175">
         <v>89.76</v>
       </c>
-      <c r="E175">
+      <c r="G175">
         <v>33</v>
       </c>
-      <c r="F175">
+      <c r="H175">
         <v>0.85399999999999998</v>
       </c>
-      <c r="G175">
+      <c r="I175">
         <v>0</v>
-      </c>
-      <c r="H175">
-        <v>814.15</v>
-      </c>
-      <c r="I175">
-        <v>299.32</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -5512,23 +5526,23 @@
       <c r="C176">
         <v>33</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="3">
+        <v>806.17</v>
+      </c>
+      <c r="E176" s="3">
+        <v>298.5</v>
+      </c>
+      <c r="F176">
         <v>88.88</v>
       </c>
-      <c r="E176">
+      <c r="G176">
         <v>32.909999999999997</v>
       </c>
-      <c r="F176">
+      <c r="H176">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="G176">
+      <c r="I176">
         <v>-0.27300000000000002</v>
-      </c>
-      <c r="H176">
-        <v>806.17</v>
-      </c>
-      <c r="I176">
-        <v>298.5</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -5541,23 +5555,23 @@
       <c r="C177">
         <v>35</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="3">
+        <v>767.62</v>
+      </c>
+      <c r="E177" s="3">
+        <v>318.55</v>
+      </c>
+      <c r="F177">
         <v>84.63</v>
       </c>
-      <c r="E177">
+      <c r="G177">
         <v>35.119999999999997</v>
       </c>
-      <c r="F177">
+      <c r="H177">
         <v>0.75</v>
       </c>
-      <c r="G177">
+      <c r="I177">
         <v>0.34300000000000003</v>
-      </c>
-      <c r="H177">
-        <v>767.62</v>
-      </c>
-      <c r="I177">
-        <v>318.55</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -5570,23 +5584,23 @@
       <c r="C178">
         <v>36</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="3">
+        <v>741.86</v>
+      </c>
+      <c r="E178" s="3">
+        <v>325.35000000000002</v>
+      </c>
+      <c r="F178">
         <v>81.790000000000006</v>
       </c>
-      <c r="E178">
+      <c r="G178">
         <v>35.869999999999997</v>
       </c>
-      <c r="F178">
+      <c r="H178">
         <v>-0.25600000000000001</v>
       </c>
-      <c r="G178">
+      <c r="I178">
         <v>-0.36099999999999999</v>
-      </c>
-      <c r="H178">
-        <v>741.86</v>
-      </c>
-      <c r="I178">
-        <v>325.35000000000002</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -5599,23 +5613,23 @@
       <c r="C179">
         <v>34</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="3">
+        <v>800.73</v>
+      </c>
+      <c r="E179" s="3">
+        <v>308.3</v>
+      </c>
+      <c r="F179">
         <v>88.28</v>
       </c>
-      <c r="E179">
+      <c r="G179">
         <v>33.99</v>
       </c>
-      <c r="F179">
+      <c r="H179">
         <v>0.318</v>
       </c>
-      <c r="G179">
+      <c r="I179">
         <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="H179">
-        <v>800.73</v>
-      </c>
-      <c r="I179">
-        <v>308.3</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -5628,23 +5642,23 @@
       <c r="C180">
         <v>34</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="3">
+        <v>803.72</v>
+      </c>
+      <c r="E180" s="3">
+        <v>307.94</v>
+      </c>
+      <c r="F180">
         <v>88.61</v>
       </c>
-      <c r="E180">
+      <c r="G180">
         <v>33.950000000000003</v>
       </c>
-      <c r="F180">
+      <c r="H180">
         <v>-0.438</v>
       </c>
-      <c r="G180">
+      <c r="I180">
         <v>-0.14699999999999999</v>
-      </c>
-      <c r="H180">
-        <v>803.72</v>
-      </c>
-      <c r="I180">
-        <v>307.94</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -5657,23 +5671,23 @@
       <c r="C181">
         <v>35</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="3">
+        <v>795.01</v>
+      </c>
+      <c r="E181" s="3">
+        <v>317.82</v>
+      </c>
+      <c r="F181">
         <v>87.65</v>
       </c>
-      <c r="E181">
+      <c r="G181">
         <v>35.04</v>
       </c>
-      <c r="F181">
+      <c r="H181">
         <v>0.747</v>
       </c>
-      <c r="G181">
+      <c r="I181">
         <v>0.114</v>
-      </c>
-      <c r="H181">
-        <v>795.01</v>
-      </c>
-      <c r="I181">
-        <v>317.82</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -5686,23 +5700,23 @@
       <c r="C182">
         <v>36</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="3">
+        <v>780.77</v>
+      </c>
+      <c r="E182" s="3">
+        <v>327.71</v>
+      </c>
+      <c r="F182">
         <v>86.08</v>
       </c>
-      <c r="E182">
+      <c r="G182">
         <v>36.130000000000003</v>
       </c>
-      <c r="F182">
+      <c r="H182">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G182">
+      <c r="I182">
         <v>0.36099999999999999</v>
-      </c>
-      <c r="H182">
-        <v>780.77</v>
-      </c>
-      <c r="I182">
-        <v>327.71</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -5715,23 +5729,23 @@
       <c r="C183">
         <v>36</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="3">
+        <v>787.12</v>
+      </c>
+      <c r="E183" s="3">
+        <v>326.44</v>
+      </c>
+      <c r="F183">
         <v>86.78</v>
       </c>
-      <c r="E183">
+      <c r="G183">
         <v>35.99</v>
       </c>
-      <c r="F183">
+      <c r="H183">
         <v>-0.253</v>
       </c>
-      <c r="G183">
+      <c r="I183">
         <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="H183">
-        <v>787.12</v>
-      </c>
-      <c r="I183">
-        <v>326.44</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -5744,23 +5758,23 @@
       <c r="C184">
         <v>36</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="3">
+        <v>790.66</v>
+      </c>
+      <c r="E184" s="3">
+        <v>327.26</v>
+      </c>
+      <c r="F184">
         <v>87.17</v>
       </c>
-      <c r="E184">
+      <c r="G184">
         <v>36.08</v>
       </c>
-      <c r="F184">
+      <c r="H184">
         <v>-0.94299999999999995</v>
       </c>
-      <c r="G184">
+      <c r="I184">
         <v>0.222</v>
-      </c>
-      <c r="H184">
-        <v>790.66</v>
-      </c>
-      <c r="I184">
-        <v>327.26</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -5773,23 +5787,23 @@
       <c r="C185">
         <v>42</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="3">
+        <v>711.11</v>
+      </c>
+      <c r="E185" s="3">
+        <v>381.22</v>
+      </c>
+      <c r="F185">
         <v>78.400000000000006</v>
       </c>
-      <c r="E185">
+      <c r="G185">
         <v>42.03</v>
       </c>
-      <c r="F185">
+      <c r="H185">
         <v>0.51300000000000001</v>
       </c>
-      <c r="G185">
+      <c r="I185">
         <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H185">
-        <v>711.11</v>
-      </c>
-      <c r="I185">
-        <v>381.22</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -5802,23 +5816,23 @@
       <c r="C186">
         <v>36</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="3">
+        <v>843.45</v>
+      </c>
+      <c r="E186" s="3">
+        <v>325.99</v>
+      </c>
+      <c r="F186">
         <v>92.99</v>
       </c>
-      <c r="E186">
+      <c r="G186">
         <v>35.94</v>
       </c>
-      <c r="F186">
+      <c r="H186">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="G186">
+      <c r="I186">
         <v>-0.16700000000000001</v>
-      </c>
-      <c r="H186">
-        <v>843.45</v>
-      </c>
-      <c r="I186">
-        <v>325.99</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -5831,23 +5845,23 @@
       <c r="C187">
         <v>35</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="3">
+        <v>877.01</v>
+      </c>
+      <c r="E187" s="3">
+        <v>317.37</v>
+      </c>
+      <c r="F187">
         <v>96.69</v>
       </c>
-      <c r="E187">
+      <c r="G187">
         <v>34.99</v>
       </c>
-      <c r="F187">
+      <c r="H187">
         <v>-0.32</v>
       </c>
-      <c r="G187">
+      <c r="I187">
         <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="H187">
-        <v>877.01</v>
-      </c>
-      <c r="I187">
-        <v>317.37</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -5860,23 +5874,23 @@
       <c r="C188">
         <v>35</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="3">
+        <v>882.81</v>
+      </c>
+      <c r="E188" s="3">
+        <v>316.64</v>
+      </c>
+      <c r="F188">
         <v>97.33</v>
       </c>
-      <c r="E188">
+      <c r="G188">
         <v>34.909999999999997</v>
       </c>
-      <c r="F188">
+      <c r="H188">
         <v>0.34</v>
       </c>
-      <c r="G188">
+      <c r="I188">
         <v>-0.25700000000000001</v>
-      </c>
-      <c r="H188">
-        <v>882.81</v>
-      </c>
-      <c r="I188">
-        <v>316.64</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -5889,23 +5903,23 @@
       <c r="C189">
         <v>36</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="3">
+        <v>862.59</v>
+      </c>
+      <c r="E189" s="3">
+        <v>326.08</v>
+      </c>
+      <c r="F189">
         <v>95.1</v>
       </c>
-      <c r="E189">
+      <c r="G189">
         <v>35.950000000000003</v>
       </c>
-      <c r="F189">
+      <c r="H189">
         <v>0.105</v>
       </c>
-      <c r="G189">
+      <c r="I189">
         <v>-0.13900000000000001</v>
-      </c>
-      <c r="H189">
-        <v>862.59</v>
-      </c>
-      <c r="I189">
-        <v>326.08</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -5918,23 +5932,23 @@
       <c r="C190">
         <v>37</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="3">
+        <v>845.17</v>
+      </c>
+      <c r="E190" s="3">
+        <v>336.24</v>
+      </c>
+      <c r="F190">
         <v>93.18</v>
       </c>
-      <c r="E190">
+      <c r="G190">
         <v>37.07</v>
       </c>
-      <c r="F190">
+      <c r="H190">
         <v>-0.872</v>
       </c>
-      <c r="G190">
+      <c r="I190">
         <v>0.189</v>
-      </c>
-      <c r="H190">
-        <v>845.17</v>
-      </c>
-      <c r="I190">
-        <v>336.24</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -5947,23 +5961,23 @@
       <c r="C191">
         <v>39</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="3">
+        <v>819.95</v>
+      </c>
+      <c r="E191" s="3">
+        <v>354.1</v>
+      </c>
+      <c r="F191">
         <v>90.4</v>
       </c>
-      <c r="E191">
+      <c r="G191">
         <v>39.04</v>
       </c>
-      <c r="F191">
+      <c r="H191">
         <v>-0.65900000000000003</v>
       </c>
-      <c r="G191">
+      <c r="I191">
         <v>0.10299999999999999</v>
-      </c>
-      <c r="H191">
-        <v>819.95</v>
-      </c>
-      <c r="I191">
-        <v>354.1</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -5976,23 +5990,23 @@
       <c r="C192">
         <v>39</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="3">
+        <v>842.72</v>
+      </c>
+      <c r="E192" s="3">
+        <v>353.47</v>
+      </c>
+      <c r="F192">
         <v>92.91</v>
       </c>
-      <c r="E192">
+      <c r="G192">
         <v>38.97</v>
       </c>
-      <c r="F192">
+      <c r="H192">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="G192">
+      <c r="I192">
         <v>-7.6999999999999999E-2</v>
-      </c>
-      <c r="H192">
-        <v>842.72</v>
-      </c>
-      <c r="I192">
-        <v>353.47</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -6005,23 +6019,23 @@
       <c r="C193">
         <v>38</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="3">
+        <v>875.65</v>
+      </c>
+      <c r="E193" s="3">
+        <v>345.4</v>
+      </c>
+      <c r="F193">
         <v>96.54</v>
       </c>
-      <c r="E193">
+      <c r="G193">
         <v>38.08</v>
       </c>
-      <c r="F193">
+      <c r="H193">
         <v>-0.47399999999999998</v>
       </c>
-      <c r="G193">
+      <c r="I193">
         <v>0.21099999999999999</v>
-      </c>
-      <c r="H193">
-        <v>875.65</v>
-      </c>
-      <c r="I193">
-        <v>345.4</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -6034,23 +6048,23 @@
       <c r="C194">
         <v>40</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="3">
+        <v>874.47</v>
+      </c>
+      <c r="E194" s="3">
+        <v>362.09</v>
+      </c>
+      <c r="F194">
         <v>96.41</v>
       </c>
-      <c r="E194">
+      <c r="G194">
         <v>39.92</v>
       </c>
-      <c r="F194">
+      <c r="H194">
         <v>-0.60799999999999998</v>
       </c>
-      <c r="G194">
+      <c r="I194">
         <v>-0.2</v>
-      </c>
-      <c r="H194">
-        <v>874.47</v>
-      </c>
-      <c r="I194">
-        <v>362.09</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -6063,23 +6077,23 @@
       <c r="C195">
         <v>40</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="3">
+        <v>881.45</v>
+      </c>
+      <c r="E195" s="3">
+        <v>362</v>
+      </c>
+      <c r="F195">
         <v>97.18</v>
       </c>
-      <c r="E195">
+      <c r="G195">
         <v>39.909999999999997</v>
       </c>
-      <c r="F195">
+      <c r="H195">
         <v>0.186</v>
       </c>
-      <c r="G195">
+      <c r="I195">
         <v>-0.22500000000000001</v>
-      </c>
-      <c r="H195">
-        <v>881.45</v>
-      </c>
-      <c r="I195">
-        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -6092,23 +6106,23 @@
       <c r="C196">
         <v>40</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="3">
+        <v>873.2</v>
+      </c>
+      <c r="E196" s="3">
+        <v>364.08</v>
+      </c>
+      <c r="F196">
         <v>96.27</v>
       </c>
-      <c r="E196">
+      <c r="G196">
         <v>40.14</v>
       </c>
-      <c r="F196">
+      <c r="H196">
         <v>-0.753</v>
       </c>
-      <c r="G196">
+      <c r="I196">
         <v>0.35</v>
-      </c>
-      <c r="H196">
-        <v>873.2</v>
-      </c>
-      <c r="I196">
-        <v>364.08</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -6121,23 +6135,23 @@
       <c r="C197">
         <v>39</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="3">
+        <v>924.81</v>
+      </c>
+      <c r="E197" s="3">
+        <v>353.83</v>
+      </c>
+      <c r="F197">
         <v>101.96</v>
       </c>
-      <c r="E197">
+      <c r="G197">
         <v>39.01</v>
       </c>
-      <c r="F197">
+      <c r="H197">
         <v>0.95</v>
       </c>
-      <c r="G197">
+      <c r="I197">
         <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H197">
-        <v>924.81</v>
-      </c>
-      <c r="I197">
-        <v>353.83</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -6150,23 +6164,23 @@
       <c r="C198">
         <v>41</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="3">
+        <v>879.82</v>
+      </c>
+      <c r="E198" s="3">
+        <v>371.34</v>
+      </c>
+      <c r="F198">
         <v>97</v>
       </c>
-      <c r="E198">
+      <c r="G198">
         <v>40.94</v>
       </c>
-      <c r="F198">
+      <c r="H198">
         <v>0</v>
       </c>
-      <c r="G198">
+      <c r="I198">
         <v>-0.14599999999999999</v>
-      </c>
-      <c r="H198">
-        <v>879.82</v>
-      </c>
-      <c r="I198">
-        <v>371.34</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -6179,23 +6193,23 @@
       <c r="C199">
         <v>41</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="3">
+        <v>879.55</v>
+      </c>
+      <c r="E199" s="3">
+        <v>373.15</v>
+      </c>
+      <c r="F199">
         <v>96.97</v>
       </c>
-      <c r="E199">
+      <c r="G199">
         <v>41.14</v>
       </c>
-      <c r="F199">
+      <c r="H199">
         <v>-3.1E-2</v>
       </c>
-      <c r="G199">
+      <c r="I199">
         <v>0.34100000000000003</v>
-      </c>
-      <c r="H199">
-        <v>879.55</v>
-      </c>
-      <c r="I199">
-        <v>373.15</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -6208,23 +6222,23 @@
       <c r="C200">
         <v>40</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="3">
+        <v>900.41</v>
+      </c>
+      <c r="E200" s="3">
+        <v>362</v>
+      </c>
+      <c r="F200">
         <v>99.27</v>
       </c>
-      <c r="E200">
+      <c r="G200">
         <v>39.909999999999997</v>
       </c>
-      <c r="F200">
+      <c r="H200">
         <v>-0.73</v>
       </c>
-      <c r="G200">
+      <c r="I200">
         <v>-0.22500000000000001</v>
-      </c>
-      <c r="H200">
-        <v>900.41</v>
-      </c>
-      <c r="I200">
-        <v>362</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -6237,23 +6251,23 @@
       <c r="C201">
         <v>40</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="3">
+        <v>917.46</v>
+      </c>
+      <c r="E201" s="3">
+        <v>363.45</v>
+      </c>
+      <c r="F201">
         <v>101.15</v>
       </c>
-      <c r="E201">
+      <c r="G201">
         <v>40.07</v>
       </c>
-      <c r="F201">
+      <c r="H201">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G201">
+      <c r="I201">
         <v>0.17499999999999999</v>
-      </c>
-      <c r="H201">
-        <v>917.46</v>
-      </c>
-      <c r="I201">
-        <v>363.45</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -6266,23 +6280,23 @@
       <c r="C202">
         <v>41</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="3">
+        <v>911.84</v>
+      </c>
+      <c r="E202" s="3">
+        <v>371.52</v>
+      </c>
+      <c r="F202">
         <v>100.53</v>
       </c>
-      <c r="E202">
+      <c r="G202">
         <v>40.96</v>
       </c>
-      <c r="F202">
+      <c r="H202">
         <v>-0.46500000000000002</v>
       </c>
-      <c r="G202">
+      <c r="I202">
         <v>-9.8000000000000004E-2</v>
-      </c>
-      <c r="H202">
-        <v>911.84</v>
-      </c>
-      <c r="I202">
-        <v>371.52</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -6295,23 +6309,23 @@
       <c r="C203">
         <v>41</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="3">
+        <v>952.65</v>
+      </c>
+      <c r="E203" s="3">
+        <v>372.52</v>
+      </c>
+      <c r="F203">
         <v>105.03</v>
       </c>
-      <c r="E203">
+      <c r="G203">
         <v>41.07</v>
       </c>
-      <c r="F203">
+      <c r="H203">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G203">
+      <c r="I203">
         <v>0.17100000000000001</v>
-      </c>
-      <c r="H203">
-        <v>952.65</v>
-      </c>
-      <c r="I203">
-        <v>372.52</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -6324,23 +6338,23 @@
       <c r="C204">
         <v>42</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="3">
+        <v>964.44</v>
+      </c>
+      <c r="E204" s="3">
+        <v>381.13</v>
+      </c>
+      <c r="F204">
         <v>106.33</v>
       </c>
-      <c r="E204">
+      <c r="G204">
         <v>42.02</v>
       </c>
-      <c r="F204">
+      <c r="H204">
         <v>-0.626</v>
       </c>
-      <c r="G204">
+      <c r="I204">
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H204">
-        <v>964.44</v>
-      </c>
-      <c r="I204">
-        <v>381.13</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -6353,23 +6367,23 @@
       <c r="C205">
         <v>45</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="3">
+        <v>970.43</v>
+      </c>
+      <c r="E205" s="3">
+        <v>407.35</v>
+      </c>
+      <c r="F205">
         <v>106.99</v>
       </c>
-      <c r="E205">
+      <c r="G205">
         <v>44.91</v>
       </c>
-      <c r="F205">
+      <c r="H205">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="G205">
+      <c r="I205">
         <v>-0.2</v>
-      </c>
-      <c r="H205">
-        <v>970.43</v>
-      </c>
-      <c r="I205">
-        <v>407.35</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -6382,23 +6396,23 @@
       <c r="C206">
         <v>45</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="3">
+        <v>979.14</v>
+      </c>
+      <c r="E206" s="3">
+        <v>409.71</v>
+      </c>
+      <c r="F206">
         <v>107.95</v>
       </c>
-      <c r="E206">
+      <c r="G206">
         <v>45.17</v>
       </c>
-      <c r="F206">
+      <c r="H206">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="G206">
+      <c r="I206">
         <v>0.378</v>
-      </c>
-      <c r="H206">
-        <v>979.14</v>
-      </c>
-      <c r="I206">
-        <v>409.71</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -6411,23 +6425,23 @@
       <c r="C207">
         <v>44</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="3">
+        <v>1024.94</v>
+      </c>
+      <c r="E207" s="3">
+        <v>400.18</v>
+      </c>
+      <c r="F207">
         <v>113</v>
       </c>
-      <c r="E207">
+      <c r="G207">
         <v>44.12</v>
       </c>
-      <c r="F207">
+      <c r="H207">
         <v>-0.877</v>
       </c>
-      <c r="G207">
+      <c r="I207">
         <v>0.27300000000000002</v>
-      </c>
-      <c r="H207">
-        <v>1024.94</v>
-      </c>
-      <c r="I207">
-        <v>400.18</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -6440,23 +6454,23 @@
       <c r="C208">
         <v>46</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="3">
+        <v>989.02</v>
+      </c>
+      <c r="E208" s="3">
+        <v>415.69</v>
+      </c>
+      <c r="F208">
         <v>109.04</v>
       </c>
-      <c r="E208">
+      <c r="G208">
         <v>45.83</v>
       </c>
-      <c r="F208">
+      <c r="H208">
         <v>-0.873</v>
       </c>
-      <c r="G208">
+      <c r="I208">
         <v>-0.37</v>
-      </c>
-      <c r="H208">
-        <v>989.02</v>
-      </c>
-      <c r="I208">
-        <v>415.69</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -6469,23 +6483,23 @@
       <c r="C209">
         <v>48</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="3">
+        <v>965.9</v>
+      </c>
+      <c r="E209" s="3">
+        <v>433.92</v>
+      </c>
+      <c r="F209">
         <v>106.49</v>
       </c>
-      <c r="E209">
+      <c r="G209">
         <v>47.84</v>
       </c>
-      <c r="F209">
+      <c r="H209">
         <v>0.46200000000000002</v>
       </c>
-      <c r="G209">
+      <c r="I209">
         <v>-0.33300000000000002</v>
-      </c>
-      <c r="H209">
-        <v>965.9</v>
-      </c>
-      <c r="I209">
-        <v>433.92</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -6498,23 +6512,23 @@
       <c r="C210">
         <v>52</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="3">
+        <v>958.19</v>
+      </c>
+      <c r="E210" s="3">
+        <v>473.47</v>
+      </c>
+      <c r="F210">
         <v>105.64</v>
       </c>
-      <c r="E210">
+      <c r="G210">
         <v>52.2</v>
       </c>
-      <c r="F210">
+      <c r="H210">
         <v>-0.34</v>
       </c>
-      <c r="G210">
+      <c r="I210">
         <v>0.38500000000000001</v>
-      </c>
-      <c r="H210">
-        <v>958.19</v>
-      </c>
-      <c r="I210">
-        <v>473.47</v>
       </c>
     </row>
   </sheetData>
